--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,12 @@
     <t>['1', '57']</t>
   </si>
   <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -581,6 +587,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK86"/>
+  <dimension ref="A1:BK88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,7 +1386,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1759,7 +1768,7 @@
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1950,7 +1959,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2141,7 +2150,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2332,7 +2341,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2610,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
         <v>1.67</v>
@@ -2714,7 +2723,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3186,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3287,7 +3296,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3478,7 +3487,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3860,7 +3869,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4242,7 +4251,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4433,7 +4442,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4624,7 +4633,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4815,7 +4824,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5093,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5197,7 +5206,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5770,7 +5779,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5961,7 +5970,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6152,7 +6161,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6343,7 +6352,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6725,7 +6734,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7298,7 +7307,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7388,7 +7397,7 @@
         <v>0.75</v>
       </c>
       <c r="AT34">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU34">
         <v>1.36</v>
@@ -7680,7 +7689,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7871,7 +7880,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8253,7 +8262,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8531,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT40">
         <v>1.67</v>
@@ -8635,7 +8644,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8826,7 +8835,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9017,7 +9026,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9399,7 +9408,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9972,7 +9981,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10441,7 +10450,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT50">
         <v>1.75</v>
@@ -10736,7 +10745,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -10927,7 +10936,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11118,7 +11127,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11500,7 +11509,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11691,7 +11700,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11882,7 +11891,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12455,7 +12464,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12646,7 +12655,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12837,7 +12846,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13028,7 +13037,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13309,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="AT65">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>1.26</v>
@@ -13410,7 +13419,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13601,7 +13610,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13688,7 +13697,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT67">
         <v>0.33</v>
@@ -14174,7 +14183,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14747,7 +14756,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14938,7 +14947,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15320,7 +15329,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15893,7 +15902,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16084,7 +16093,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16275,7 +16284,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16466,7 +16475,7 @@
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q82">
         <v>8</v>
@@ -16848,7 +16857,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17230,7 +17239,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17372,6 +17381,388 @@
       </c>
       <c r="BK86">
         <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>4554510</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44995.875</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>85</v>
+      </c>
+      <c r="H87" t="s">
+        <v>81</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>144</v>
+      </c>
+      <c r="P87" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q87">
+        <v>8</v>
+      </c>
+      <c r="R87">
+        <v>4</v>
+      </c>
+      <c r="S87">
+        <v>12</v>
+      </c>
+      <c r="T87">
+        <v>1.95</v>
+      </c>
+      <c r="U87">
+        <v>2.2</v>
+      </c>
+      <c r="V87">
+        <v>6.5</v>
+      </c>
+      <c r="W87">
+        <v>1.4</v>
+      </c>
+      <c r="X87">
+        <v>2.75</v>
+      </c>
+      <c r="Y87">
+        <v>2.75</v>
+      </c>
+      <c r="Z87">
+        <v>1.4</v>
+      </c>
+      <c r="AA87">
+        <v>7</v>
+      </c>
+      <c r="AB87">
+        <v>1.08</v>
+      </c>
+      <c r="AC87">
+        <v>1.4</v>
+      </c>
+      <c r="AD87">
+        <v>4.5</v>
+      </c>
+      <c r="AE87">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AF87">
+        <v>1.06</v>
+      </c>
+      <c r="AG87">
+        <v>8</v>
+      </c>
+      <c r="AH87">
+        <v>1.36</v>
+      </c>
+      <c r="AI87">
+        <v>3</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>1.73</v>
+      </c>
+      <c r="AL87">
+        <v>2.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.6</v>
+      </c>
+      <c r="AN87">
+        <v>1.06</v>
+      </c>
+      <c r="AO87">
+        <v>1.2</v>
+      </c>
+      <c r="AP87">
+        <v>2.88</v>
+      </c>
+      <c r="AQ87">
+        <v>3</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
+      </c>
+      <c r="AS87">
+        <v>2.33</v>
+      </c>
+      <c r="AT87">
+        <v>1</v>
+      </c>
+      <c r="AU87">
+        <v>1.81</v>
+      </c>
+      <c r="AV87">
+        <v>1.09</v>
+      </c>
+      <c r="AW87">
+        <v>2.9</v>
+      </c>
+      <c r="AX87">
+        <v>1.23</v>
+      </c>
+      <c r="AY87">
+        <v>10</v>
+      </c>
+      <c r="AZ87">
+        <v>5.15</v>
+      </c>
+      <c r="BA87">
+        <v>1.29</v>
+      </c>
+      <c r="BB87">
+        <v>1.52</v>
+      </c>
+      <c r="BC87">
+        <v>1.94</v>
+      </c>
+      <c r="BD87">
+        <v>2.5</v>
+      </c>
+      <c r="BE87">
+        <v>3.75</v>
+      </c>
+      <c r="BF87">
+        <v>8</v>
+      </c>
+      <c r="BG87">
+        <v>3</v>
+      </c>
+      <c r="BH87">
+        <v>9</v>
+      </c>
+      <c r="BI87">
+        <v>4</v>
+      </c>
+      <c r="BJ87">
+        <v>17</v>
+      </c>
+      <c r="BK87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5019496</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44995.875</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s">
+        <v>88</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>145</v>
+      </c>
+      <c r="P88" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <v>3</v>
+      </c>
+      <c r="S88">
+        <v>8</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
+        <v>1.91</v>
+      </c>
+      <c r="V88">
+        <v>3.7</v>
+      </c>
+      <c r="W88">
+        <v>1.5</v>
+      </c>
+      <c r="X88">
+        <v>2.5</v>
+      </c>
+      <c r="Y88">
+        <v>3.4</v>
+      </c>
+      <c r="Z88">
+        <v>1.3</v>
+      </c>
+      <c r="AA88">
+        <v>9</v>
+      </c>
+      <c r="AB88">
+        <v>1.05</v>
+      </c>
+      <c r="AC88">
+        <v>2.28</v>
+      </c>
+      <c r="AD88">
+        <v>3.1</v>
+      </c>
+      <c r="AE88">
+        <v>3.15</v>
+      </c>
+      <c r="AF88">
+        <v>1.11</v>
+      </c>
+      <c r="AG88">
+        <v>6</v>
+      </c>
+      <c r="AH88">
+        <v>1.5</v>
+      </c>
+      <c r="AI88">
+        <v>2.5</v>
+      </c>
+      <c r="AJ88">
+        <v>2.5</v>
+      </c>
+      <c r="AK88">
+        <v>1.5</v>
+      </c>
+      <c r="AL88">
+        <v>2.05</v>
+      </c>
+      <c r="AM88">
+        <v>1.7</v>
+      </c>
+      <c r="AN88">
+        <v>1.3</v>
+      </c>
+      <c r="AO88">
+        <v>1.36</v>
+      </c>
+      <c r="AP88">
+        <v>1.57</v>
+      </c>
+      <c r="AQ88">
+        <v>1.67</v>
+      </c>
+      <c r="AR88">
+        <v>0.33</v>
+      </c>
+      <c r="AS88">
+        <v>1.5</v>
+      </c>
+      <c r="AT88">
+        <v>0.5</v>
+      </c>
+      <c r="AU88">
+        <v>1.59</v>
+      </c>
+      <c r="AV88">
+        <v>1.47</v>
+      </c>
+      <c r="AW88">
+        <v>3.06</v>
+      </c>
+      <c r="AX88">
+        <v>1.82</v>
+      </c>
+      <c r="AY88">
+        <v>7.5</v>
+      </c>
+      <c r="AZ88">
+        <v>2.42</v>
+      </c>
+      <c r="BA88">
+        <v>1.32</v>
+      </c>
+      <c r="BB88">
+        <v>1.59</v>
+      </c>
+      <c r="BC88">
+        <v>2</v>
+      </c>
+      <c r="BD88">
+        <v>2.65</v>
+      </c>
+      <c r="BE88">
+        <v>4</v>
+      </c>
+      <c r="BF88">
+        <v>5</v>
+      </c>
+      <c r="BG88">
+        <v>5</v>
+      </c>
+      <c r="BH88">
+        <v>5</v>
+      </c>
+      <c r="BI88">
+        <v>2</v>
+      </c>
+      <c r="BJ88">
+        <v>10</v>
+      </c>
+      <c r="BK88">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,18 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['39', '58', '78', '80']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['63', '78']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -590,6 +602,9 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK88"/>
+  <dimension ref="A1:BK93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1401,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1473,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>1.67</v>
@@ -1768,7 +1783,7 @@
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1959,7 +1974,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2049,7 +2064,7 @@
         <v>0.33</v>
       </c>
       <c r="AT6">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2150,7 +2165,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2237,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>2.25</v>
@@ -2341,7 +2356,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2622,7 +2637,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2723,7 +2738,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2813,7 +2828,7 @@
         <v>0.33</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3001,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1.75</v>
@@ -3296,7 +3311,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3487,7 +3502,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3577,7 +3592,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3869,7 +3884,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4251,7 +4266,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4442,7 +4457,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4633,7 +4648,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4720,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>2.25</v>
@@ -4824,7 +4839,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5206,7 +5221,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5779,7 +5794,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5869,7 +5884,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -5970,7 +5985,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6161,7 +6176,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6352,7 +6367,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6630,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
         <v>1.75</v>
@@ -6734,7 +6749,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -6824,7 +6839,7 @@
         <v>0.33</v>
       </c>
       <c r="AT31">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU31">
         <v>1.17</v>
@@ -7203,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
         <v>0.33</v>
@@ -7307,7 +7322,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7689,7 +7704,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7880,7 +7895,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8161,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU38">
         <v>1.72</v>
@@ -8262,7 +8277,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8644,7 +8659,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8731,10 +8746,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -8835,7 +8850,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9026,7 +9041,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9116,7 +9131,7 @@
         <v>0.33</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU43">
         <v>1.92</v>
@@ -9408,7 +9423,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9981,7 +9996,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10745,7 +10760,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -10936,7 +10951,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11127,7 +11142,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11509,7 +11524,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11700,7 +11715,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11891,7 +11906,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -11978,10 +11993,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT58">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU58">
         <v>0.67</v>
@@ -12464,7 +12479,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12554,7 +12569,7 @@
         <v>0.75</v>
       </c>
       <c r="AT61">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU61">
         <v>1.14</v>
@@ -12655,7 +12670,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12745,7 +12760,7 @@
         <v>0.33</v>
       </c>
       <c r="AT62">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU62">
         <v>2.1</v>
@@ -12846,7 +12861,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13037,7 +13052,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13315,7 +13330,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT65">
         <v>0.5</v>
@@ -13419,7 +13434,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13610,7 +13625,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14082,7 +14097,7 @@
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU69">
         <v>0.49</v>
@@ -14183,7 +14198,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14270,10 +14285,10 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -14461,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
         <v>0.75</v>
@@ -14756,7 +14771,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14947,7 +14962,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15329,7 +15344,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15902,7 +15917,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16093,7 +16108,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16284,7 +16299,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16475,7 +16490,7 @@
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>8</v>
@@ -16857,7 +16872,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17239,7 +17254,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17621,16 +17636,16 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q88">
         <v>5</v>
       </c>
       <c r="R88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T88">
         <v>3</v>
@@ -17763,6 +17778,961 @@
       </c>
       <c r="BK88">
         <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>4554515</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>146</v>
+      </c>
+      <c r="P89" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q89">
+        <v>7</v>
+      </c>
+      <c r="R89">
+        <v>4</v>
+      </c>
+      <c r="S89">
+        <v>11</v>
+      </c>
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
+        <v>1.91</v>
+      </c>
+      <c r="V89">
+        <v>5</v>
+      </c>
+      <c r="W89">
+        <v>1.53</v>
+      </c>
+      <c r="X89">
+        <v>2.38</v>
+      </c>
+      <c r="Y89">
+        <v>3.5</v>
+      </c>
+      <c r="Z89">
+        <v>1.29</v>
+      </c>
+      <c r="AA89">
+        <v>9</v>
+      </c>
+      <c r="AB89">
+        <v>1.05</v>
+      </c>
+      <c r="AC89">
+        <v>1.85</v>
+      </c>
+      <c r="AD89">
+        <v>3.08</v>
+      </c>
+      <c r="AE89">
+        <v>4.48</v>
+      </c>
+      <c r="AF89">
+        <v>1.12</v>
+      </c>
+      <c r="AG89">
+        <v>5.5</v>
+      </c>
+      <c r="AH89">
+        <v>1.57</v>
+      </c>
+      <c r="AI89">
+        <v>2.3</v>
+      </c>
+      <c r="AJ89">
+        <v>2.62</v>
+      </c>
+      <c r="AK89">
+        <v>1.44</v>
+      </c>
+      <c r="AL89">
+        <v>2.3</v>
+      </c>
+      <c r="AM89">
+        <v>1.57</v>
+      </c>
+      <c r="AN89">
+        <v>1.15</v>
+      </c>
+      <c r="AO89">
+        <v>1.33</v>
+      </c>
+      <c r="AP89">
+        <v>1.95</v>
+      </c>
+      <c r="AQ89">
+        <v>3</v>
+      </c>
+      <c r="AR89">
+        <v>0.33</v>
+      </c>
+      <c r="AS89">
+        <v>3</v>
+      </c>
+      <c r="AT89">
+        <v>0.25</v>
+      </c>
+      <c r="AU89">
+        <v>1.5</v>
+      </c>
+      <c r="AV89">
+        <v>1.48</v>
+      </c>
+      <c r="AW89">
+        <v>2.98</v>
+      </c>
+      <c r="AX89">
+        <v>1.41</v>
+      </c>
+      <c r="AY89">
+        <v>9</v>
+      </c>
+      <c r="AZ89">
+        <v>3.56</v>
+      </c>
+      <c r="BA89">
+        <v>1.25</v>
+      </c>
+      <c r="BB89">
+        <v>1.47</v>
+      </c>
+      <c r="BC89">
+        <v>1.93</v>
+      </c>
+      <c r="BD89">
+        <v>2.4</v>
+      </c>
+      <c r="BE89">
+        <v>3.4</v>
+      </c>
+      <c r="BF89">
+        <v>6</v>
+      </c>
+      <c r="BG89">
+        <v>3</v>
+      </c>
+      <c r="BH89">
+        <v>7</v>
+      </c>
+      <c r="BI89">
+        <v>4</v>
+      </c>
+      <c r="BJ89">
+        <v>13</v>
+      </c>
+      <c r="BK89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>4554519</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44996.80208333334</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>66</v>
+      </c>
+      <c r="H90" t="s">
+        <v>68</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>147</v>
+      </c>
+      <c r="P90" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q90">
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <v>-1</v>
+      </c>
+      <c r="S90">
+        <v>-1</v>
+      </c>
+      <c r="T90">
+        <v>3.58</v>
+      </c>
+      <c r="U90">
+        <v>1.96</v>
+      </c>
+      <c r="V90">
+        <v>3.3</v>
+      </c>
+      <c r="W90">
+        <v>1.5</v>
+      </c>
+      <c r="X90">
+        <v>2.5</v>
+      </c>
+      <c r="Y90">
+        <v>3.4</v>
+      </c>
+      <c r="Z90">
+        <v>1.3</v>
+      </c>
+      <c r="AA90">
+        <v>9</v>
+      </c>
+      <c r="AB90">
+        <v>1.05</v>
+      </c>
+      <c r="AC90">
+        <v>2.7</v>
+      </c>
+      <c r="AD90">
+        <v>3</v>
+      </c>
+      <c r="AE90">
+        <v>2.5</v>
+      </c>
+      <c r="AF90">
+        <v>1.1</v>
+      </c>
+      <c r="AG90">
+        <v>6.5</v>
+      </c>
+      <c r="AH90">
+        <v>1.5</v>
+      </c>
+      <c r="AI90">
+        <v>2.5</v>
+      </c>
+      <c r="AJ90">
+        <v>2.5</v>
+      </c>
+      <c r="AK90">
+        <v>1.5</v>
+      </c>
+      <c r="AL90">
+        <v>2</v>
+      </c>
+      <c r="AM90">
+        <v>1.77</v>
+      </c>
+      <c r="AN90">
+        <v>1.49</v>
+      </c>
+      <c r="AO90">
+        <v>1.36</v>
+      </c>
+      <c r="AP90">
+        <v>1.43</v>
+      </c>
+      <c r="AQ90">
+        <v>2</v>
+      </c>
+      <c r="AR90">
+        <v>3</v>
+      </c>
+      <c r="AS90">
+        <v>1.75</v>
+      </c>
+      <c r="AT90">
+        <v>2.33</v>
+      </c>
+      <c r="AU90">
+        <v>1.33</v>
+      </c>
+      <c r="AV90">
+        <v>1.31</v>
+      </c>
+      <c r="AW90">
+        <v>2.64</v>
+      </c>
+      <c r="AX90">
+        <v>2.39</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>1.82</v>
+      </c>
+      <c r="BA90">
+        <v>1.22</v>
+      </c>
+      <c r="BB90">
+        <v>1.42</v>
+      </c>
+      <c r="BC90">
+        <v>1.8</v>
+      </c>
+      <c r="BD90">
+        <v>2.3</v>
+      </c>
+      <c r="BE90">
+        <v>3.1</v>
+      </c>
+      <c r="BF90">
+        <v>-1</v>
+      </c>
+      <c r="BG90">
+        <v>-1</v>
+      </c>
+      <c r="BH90">
+        <v>-1</v>
+      </c>
+      <c r="BI90">
+        <v>-1</v>
+      </c>
+      <c r="BJ90">
+        <v>-1</v>
+      </c>
+      <c r="BK90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>4554511</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>96</v>
+      </c>
+      <c r="P91" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>10</v>
+      </c>
+      <c r="S91">
+        <v>12</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
+        <v>3.5</v>
+      </c>
+      <c r="W91">
+        <v>1.44</v>
+      </c>
+      <c r="X91">
+        <v>2.62</v>
+      </c>
+      <c r="Y91">
+        <v>3</v>
+      </c>
+      <c r="Z91">
+        <v>1.36</v>
+      </c>
+      <c r="AA91">
+        <v>7.5</v>
+      </c>
+      <c r="AB91">
+        <v>1.07</v>
+      </c>
+      <c r="AC91">
+        <v>2.43</v>
+      </c>
+      <c r="AD91">
+        <v>3.02</v>
+      </c>
+      <c r="AE91">
+        <v>2.88</v>
+      </c>
+      <c r="AF91">
+        <v>1.08</v>
+      </c>
+      <c r="AG91">
+        <v>7</v>
+      </c>
+      <c r="AH91">
+        <v>1.4</v>
+      </c>
+      <c r="AI91">
+        <v>2.75</v>
+      </c>
+      <c r="AJ91">
+        <v>2.25</v>
+      </c>
+      <c r="AK91">
+        <v>1.6</v>
+      </c>
+      <c r="AL91">
+        <v>1.91</v>
+      </c>
+      <c r="AM91">
+        <v>1.8</v>
+      </c>
+      <c r="AN91">
+        <v>1.36</v>
+      </c>
+      <c r="AO91">
+        <v>1.35</v>
+      </c>
+      <c r="AP91">
+        <v>1.5</v>
+      </c>
+      <c r="AQ91">
+        <v>1.5</v>
+      </c>
+      <c r="AR91">
+        <v>2</v>
+      </c>
+      <c r="AS91">
+        <v>1.33</v>
+      </c>
+      <c r="AT91">
+        <v>1.75</v>
+      </c>
+      <c r="AU91">
+        <v>0.97</v>
+      </c>
+      <c r="AV91">
+        <v>1.33</v>
+      </c>
+      <c r="AW91">
+        <v>2.3</v>
+      </c>
+      <c r="AX91">
+        <v>2</v>
+      </c>
+      <c r="AY91">
+        <v>7.5</v>
+      </c>
+      <c r="AZ91">
+        <v>2.05</v>
+      </c>
+      <c r="BA91">
+        <v>1.29</v>
+      </c>
+      <c r="BB91">
+        <v>1.55</v>
+      </c>
+      <c r="BC91">
+        <v>1.95</v>
+      </c>
+      <c r="BD91">
+        <v>2.65</v>
+      </c>
+      <c r="BE91">
+        <v>3.75</v>
+      </c>
+      <c r="BF91">
+        <v>3</v>
+      </c>
+      <c r="BG91">
+        <v>4</v>
+      </c>
+      <c r="BH91">
+        <v>2</v>
+      </c>
+      <c r="BI91">
+        <v>7</v>
+      </c>
+      <c r="BJ91">
+        <v>5</v>
+      </c>
+      <c r="BK91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>4554509</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" t="s">
+        <v>79</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>148</v>
+      </c>
+      <c r="P92" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+      <c r="S92">
+        <v>6</v>
+      </c>
+      <c r="T92">
+        <v>4.47</v>
+      </c>
+      <c r="U92">
+        <v>2.16</v>
+      </c>
+      <c r="V92">
+        <v>2.74</v>
+      </c>
+      <c r="W92">
+        <v>1.45</v>
+      </c>
+      <c r="X92">
+        <v>2.78</v>
+      </c>
+      <c r="Y92">
+        <v>3.26</v>
+      </c>
+      <c r="Z92">
+        <v>1.35</v>
+      </c>
+      <c r="AA92">
+        <v>7.5</v>
+      </c>
+      <c r="AB92">
+        <v>1.07</v>
+      </c>
+      <c r="AC92">
+        <v>3.78</v>
+      </c>
+      <c r="AD92">
+        <v>3.42</v>
+      </c>
+      <c r="AE92">
+        <v>2</v>
+      </c>
+      <c r="AF92">
+        <v>1.08</v>
+      </c>
+      <c r="AG92">
+        <v>7</v>
+      </c>
+      <c r="AH92">
+        <v>1.4</v>
+      </c>
+      <c r="AI92">
+        <v>2.75</v>
+      </c>
+      <c r="AJ92">
+        <v>2.2</v>
+      </c>
+      <c r="AK92">
+        <v>1.62</v>
+      </c>
+      <c r="AL92">
+        <v>1.93</v>
+      </c>
+      <c r="AM92">
+        <v>1.88</v>
+      </c>
+      <c r="AN92">
+        <v>1.81</v>
+      </c>
+      <c r="AO92">
+        <v>1.32</v>
+      </c>
+      <c r="AP92">
+        <v>1.27</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
+        <v>2.33</v>
+      </c>
+      <c r="AS92">
+        <v>1.5</v>
+      </c>
+      <c r="AT92">
+        <v>1.75</v>
+      </c>
+      <c r="AU92">
+        <v>1.27</v>
+      </c>
+      <c r="AV92">
+        <v>1.72</v>
+      </c>
+      <c r="AW92">
+        <v>2.99</v>
+      </c>
+      <c r="AX92">
+        <v>3.07</v>
+      </c>
+      <c r="AY92">
+        <v>8.5</v>
+      </c>
+      <c r="AZ92">
+        <v>1.51</v>
+      </c>
+      <c r="BA92">
+        <v>1.24</v>
+      </c>
+      <c r="BB92">
+        <v>1.46</v>
+      </c>
+      <c r="BC92">
+        <v>1.9</v>
+      </c>
+      <c r="BD92">
+        <v>2.4</v>
+      </c>
+      <c r="BE92">
+        <v>3.3</v>
+      </c>
+      <c r="BF92">
+        <v>6</v>
+      </c>
+      <c r="BG92">
+        <v>2</v>
+      </c>
+      <c r="BH92">
+        <v>5</v>
+      </c>
+      <c r="BI92">
+        <v>3</v>
+      </c>
+      <c r="BJ92">
+        <v>11</v>
+      </c>
+      <c r="BK92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5019495</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s">
+        <v>82</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P93" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>-1</v>
+      </c>
+      <c r="S93">
+        <v>-1</v>
+      </c>
+      <c r="T93">
+        <v>2.16</v>
+      </c>
+      <c r="U93">
+        <v>2.16</v>
+      </c>
+      <c r="V93">
+        <v>5.7</v>
+      </c>
+      <c r="W93">
+        <v>1.42</v>
+      </c>
+      <c r="X93">
+        <v>2.62</v>
+      </c>
+      <c r="Y93">
+        <v>2.9</v>
+      </c>
+      <c r="Z93">
+        <v>1.36</v>
+      </c>
+      <c r="AA93">
+        <v>6.5</v>
+      </c>
+      <c r="AB93">
+        <v>1.08</v>
+      </c>
+      <c r="AC93">
+        <v>1.52</v>
+      </c>
+      <c r="AD93">
+        <v>4</v>
+      </c>
+      <c r="AE93">
+        <v>5.8</v>
+      </c>
+      <c r="AF93">
+        <v>1.05</v>
+      </c>
+      <c r="AG93">
+        <v>8</v>
+      </c>
+      <c r="AH93">
+        <v>1.33</v>
+      </c>
+      <c r="AI93">
+        <v>3</v>
+      </c>
+      <c r="AJ93">
+        <v>2.07</v>
+      </c>
+      <c r="AK93">
+        <v>1.83</v>
+      </c>
+      <c r="AL93">
+        <v>2.16</v>
+      </c>
+      <c r="AM93">
+        <v>1.67</v>
+      </c>
+      <c r="AN93">
+        <v>1.12</v>
+      </c>
+      <c r="AO93">
+        <v>1.25</v>
+      </c>
+      <c r="AP93">
+        <v>2.43</v>
+      </c>
+      <c r="AQ93">
+        <v>1.67</v>
+      </c>
+      <c r="AR93">
+        <v>1.67</v>
+      </c>
+      <c r="AS93">
+        <v>2</v>
+      </c>
+      <c r="AT93">
+        <v>1.25</v>
+      </c>
+      <c r="AU93">
+        <v>1.84</v>
+      </c>
+      <c r="AV93">
+        <v>1.08</v>
+      </c>
+      <c r="AW93">
+        <v>2.92</v>
+      </c>
+      <c r="AX93">
+        <v>1.44</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>3.55</v>
+      </c>
+      <c r="BA93">
+        <v>1.22</v>
+      </c>
+      <c r="BB93">
+        <v>1.41</v>
+      </c>
+      <c r="BC93">
+        <v>1.73</v>
+      </c>
+      <c r="BD93">
+        <v>2.23</v>
+      </c>
+      <c r="BE93">
+        <v>3</v>
+      </c>
+      <c r="BF93">
+        <v>-1</v>
+      </c>
+      <c r="BG93">
+        <v>-1</v>
+      </c>
+      <c r="BH93">
+        <v>-1</v>
+      </c>
+      <c r="BI93">
+        <v>-1</v>
+      </c>
+      <c r="BJ93">
+        <v>-1</v>
+      </c>
+      <c r="BK93">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,21 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['11', '90+4']</t>
+  </si>
+  <si>
+    <t>['29', '61', '79']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -605,6 +620,15 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT2">
         <v>0.75</v>
@@ -1401,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1491,7 +1515,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1783,7 +1807,7 @@
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1974,7 +1998,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2061,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>1.75</v>
@@ -2165,7 +2189,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2356,7 +2380,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2446,7 +2470,7 @@
         <v>0.75</v>
       </c>
       <c r="AT8">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2738,7 +2762,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2825,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT10">
         <v>1.75</v>
@@ -3311,7 +3335,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3401,7 +3425,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3502,7 +3526,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3589,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT14">
         <v>0.25</v>
@@ -3780,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3884,7 +3908,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4266,7 +4290,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4457,7 +4481,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4648,7 +4672,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4839,7 +4863,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5221,7 +5245,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5311,7 +5335,7 @@
         <v>0.33</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5794,7 +5818,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5985,7 +6009,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6176,7 +6200,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6367,7 +6391,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6749,7 +6773,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -6836,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -7030,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.4</v>
@@ -7221,7 +7245,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>1.74</v>
@@ -7322,7 +7346,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7600,7 +7624,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT35">
         <v>1.5</v>
@@ -7704,7 +7728,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7794,7 +7818,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>1.05</v>
@@ -7895,7 +7919,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7982,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8173,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT38">
         <v>0.25</v>
@@ -8277,7 +8301,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8364,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>0.75</v>
@@ -8558,7 +8582,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU40">
         <v>1.76</v>
@@ -8659,7 +8683,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8850,7 +8874,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8940,7 +8964,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
         <v>0.67</v>
@@ -9041,7 +9065,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9128,7 +9152,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT43">
         <v>1.75</v>
@@ -9423,7 +9447,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9996,7 +10020,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10760,7 +10784,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -10951,7 +10975,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11041,7 +11065,7 @@
         <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>1.66</v>
@@ -11142,7 +11166,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11524,7 +11548,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11715,7 +11739,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11906,7 +11930,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12184,10 +12208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU59">
         <v>2.03</v>
@@ -12378,7 +12402,7 @@
         <v>3</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU60">
         <v>1.46</v>
@@ -12479,7 +12503,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12670,7 +12694,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12757,7 +12781,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT62">
         <v>1.25</v>
@@ -12861,7 +12885,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -12948,10 +12972,10 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.24</v>
@@ -13052,7 +13076,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13139,10 +13163,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT64">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU64">
         <v>2.06</v>
@@ -13434,7 +13458,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13521,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -13625,7 +13649,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13715,7 +13739,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU67">
         <v>1.49</v>
@@ -13903,7 +13927,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
         <v>1.5</v>
@@ -14198,7 +14222,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14771,7 +14795,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14962,7 +14986,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15344,7 +15368,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15917,7 +15941,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16108,7 +16132,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16299,7 +16323,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16490,7 +16514,7 @@
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>8</v>
@@ -16872,7 +16896,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17254,7 +17278,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17636,7 +17660,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18018,16 +18042,16 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R90">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S90">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="T90">
         <v>3.58</v>
@@ -18144,22 +18168,22 @@
         <v>3.1</v>
       </c>
       <c r="BF90">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG90">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH90">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI90">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ90">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK90">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:63">
@@ -18594,13 +18618,13 @@
         <v>96</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="R93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S93">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T93">
         <v>2.16</v>
@@ -18717,22 +18741,1168 @@
         <v>3</v>
       </c>
       <c r="BF93">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH93">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI93">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ93">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK93">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>4554514</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44997.80208333334</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>69</v>
+      </c>
+      <c r="H94" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>150</v>
+      </c>
+      <c r="P94" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q94">
+        <v>9</v>
+      </c>
+      <c r="R94">
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <v>13</v>
+      </c>
+      <c r="T94">
+        <v>2.85</v>
+      </c>
+      <c r="U94">
+        <v>2.05</v>
+      </c>
+      <c r="V94">
+        <v>4.7</v>
+      </c>
+      <c r="W94">
+        <v>1.53</v>
+      </c>
+      <c r="X94">
+        <v>2.53</v>
+      </c>
+      <c r="Y94">
+        <v>3.3</v>
+      </c>
+      <c r="Z94">
+        <v>1.32</v>
+      </c>
+      <c r="AA94">
+        <v>10.5</v>
+      </c>
+      <c r="AB94">
+        <v>1.05</v>
+      </c>
+      <c r="AC94">
+        <v>2.1</v>
+      </c>
+      <c r="AD94">
+        <v>3.1</v>
+      </c>
+      <c r="AE94">
+        <v>3.7</v>
+      </c>
+      <c r="AF94">
+        <v>1.08</v>
+      </c>
+      <c r="AG94">
+        <v>8.25</v>
+      </c>
+      <c r="AH94">
+        <v>1.42</v>
+      </c>
+      <c r="AI94">
+        <v>2.7</v>
+      </c>
+      <c r="AJ94">
+        <v>2.25</v>
+      </c>
+      <c r="AK94">
+        <v>1.58</v>
+      </c>
+      <c r="AL94">
+        <v>2.18</v>
+      </c>
+      <c r="AM94">
+        <v>1.68</v>
+      </c>
+      <c r="AN94">
+        <v>1.29</v>
+      </c>
+      <c r="AO94">
+        <v>1.34</v>
+      </c>
+      <c r="AP94">
+        <v>1.74</v>
+      </c>
+      <c r="AQ94">
+        <v>0.33</v>
+      </c>
+      <c r="AR94">
+        <v>1.67</v>
+      </c>
+      <c r="AS94">
+        <v>1</v>
+      </c>
+      <c r="AT94">
+        <v>1.25</v>
+      </c>
+      <c r="AU94">
+        <v>1.86</v>
+      </c>
+      <c r="AV94">
+        <v>1.38</v>
+      </c>
+      <c r="AW94">
+        <v>3.24</v>
+      </c>
+      <c r="AX94">
+        <v>1.91</v>
+      </c>
+      <c r="AY94">
+        <v>7.5</v>
+      </c>
+      <c r="AZ94">
+        <v>2.2</v>
+      </c>
+      <c r="BA94">
+        <v>1.29</v>
+      </c>
+      <c r="BB94">
+        <v>1.55</v>
+      </c>
+      <c r="BC94">
+        <v>1.95</v>
+      </c>
+      <c r="BD94">
+        <v>2.65</v>
+      </c>
+      <c r="BE94">
+        <v>3.75</v>
+      </c>
+      <c r="BF94">
+        <v>6</v>
+      </c>
+      <c r="BG94">
+        <v>4</v>
+      </c>
+      <c r="BH94">
+        <v>9</v>
+      </c>
+      <c r="BI94">
+        <v>5</v>
+      </c>
+      <c r="BJ94">
+        <v>15</v>
+      </c>
+      <c r="BK94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>4554512</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44997.80208333334</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>92</v>
+      </c>
+      <c r="H95" t="s">
+        <v>87</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>151</v>
+      </c>
+      <c r="P95" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q95">
+        <v>7</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <v>1.98</v>
+      </c>
+      <c r="U95">
+        <v>2.32</v>
+      </c>
+      <c r="V95">
+        <v>6.35</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>3</v>
+      </c>
+      <c r="Y95">
+        <v>2.68</v>
+      </c>
+      <c r="Z95">
+        <v>1.44</v>
+      </c>
+      <c r="AA95">
+        <v>6.65</v>
+      </c>
+      <c r="AB95">
+        <v>1.09</v>
+      </c>
+      <c r="AC95">
+        <v>1.46</v>
+      </c>
+      <c r="AD95">
+        <v>4.4</v>
+      </c>
+      <c r="AE95">
+        <v>6.85</v>
+      </c>
+      <c r="AF95">
+        <v>1.01</v>
+      </c>
+      <c r="AG95">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH95">
+        <v>1.25</v>
+      </c>
+      <c r="AI95">
+        <v>3.48</v>
+      </c>
+      <c r="AJ95">
+        <v>1.86</v>
+      </c>
+      <c r="AK95">
+        <v>1.96</v>
+      </c>
+      <c r="AL95">
+        <v>2</v>
+      </c>
+      <c r="AM95">
+        <v>1.76</v>
+      </c>
+      <c r="AN95">
+        <v>1.1</v>
+      </c>
+      <c r="AO95">
+        <v>1.21</v>
+      </c>
+      <c r="AP95">
+        <v>2.69</v>
+      </c>
+      <c r="AQ95">
+        <v>1.5</v>
+      </c>
+      <c r="AR95">
+        <v>1</v>
+      </c>
+      <c r="AS95">
+        <v>2</v>
+      </c>
+      <c r="AT95">
+        <v>0.75</v>
+      </c>
+      <c r="AU95">
+        <v>1.81</v>
+      </c>
+      <c r="AV95">
+        <v>1.33</v>
+      </c>
+      <c r="AW95">
+        <v>3.14</v>
+      </c>
+      <c r="AX95">
+        <v>1.24</v>
+      </c>
+      <c r="AY95">
+        <v>9.5</v>
+      </c>
+      <c r="AZ95">
+        <v>5.1</v>
+      </c>
+      <c r="BA95">
+        <v>1.2</v>
+      </c>
+      <c r="BB95">
+        <v>1.38</v>
+      </c>
+      <c r="BC95">
+        <v>1.67</v>
+      </c>
+      <c r="BD95">
+        <v>2.12</v>
+      </c>
+      <c r="BE95">
+        <v>2.85</v>
+      </c>
+      <c r="BF95">
+        <v>6</v>
+      </c>
+      <c r="BG95">
+        <v>4</v>
+      </c>
+      <c r="BH95">
+        <v>7</v>
+      </c>
+      <c r="BI95">
+        <v>3</v>
+      </c>
+      <c r="BJ95">
+        <v>13</v>
+      </c>
+      <c r="BK95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>4554513</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44997.89583333334</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96" t="s">
+        <v>65</v>
+      </c>
+      <c r="H96" t="s">
+        <v>89</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>152</v>
+      </c>
+      <c r="P96" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>6</v>
+      </c>
+      <c r="T96">
+        <v>2.88</v>
+      </c>
+      <c r="U96">
+        <v>1.95</v>
+      </c>
+      <c r="V96">
+        <v>3.75</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>2.62</v>
+      </c>
+      <c r="Y96">
+        <v>3.25</v>
+      </c>
+      <c r="Z96">
+        <v>1.33</v>
+      </c>
+      <c r="AA96">
+        <v>7.5</v>
+      </c>
+      <c r="AB96">
+        <v>1.07</v>
+      </c>
+      <c r="AC96">
+        <v>2.23</v>
+      </c>
+      <c r="AD96">
+        <v>3.22</v>
+      </c>
+      <c r="AE96">
+        <v>3.35</v>
+      </c>
+      <c r="AF96">
+        <v>1.08</v>
+      </c>
+      <c r="AG96">
+        <v>7</v>
+      </c>
+      <c r="AH96">
+        <v>1.44</v>
+      </c>
+      <c r="AI96">
+        <v>2.62</v>
+      </c>
+      <c r="AJ96">
+        <v>2.3</v>
+      </c>
+      <c r="AK96">
+        <v>1.57</v>
+      </c>
+      <c r="AL96">
+        <v>2</v>
+      </c>
+      <c r="AM96">
+        <v>1.73</v>
+      </c>
+      <c r="AN96">
+        <v>1.33</v>
+      </c>
+      <c r="AO96">
+        <v>1.35</v>
+      </c>
+      <c r="AP96">
+        <v>1.57</v>
+      </c>
+      <c r="AQ96">
+        <v>3</v>
+      </c>
+      <c r="AR96">
+        <v>0.67</v>
+      </c>
+      <c r="AS96">
+        <v>2.5</v>
+      </c>
+      <c r="AT96">
+        <v>0.75</v>
+      </c>
+      <c r="AU96">
+        <v>1.7</v>
+      </c>
+      <c r="AV96">
+        <v>1.11</v>
+      </c>
+      <c r="AW96">
+        <v>2.81</v>
+      </c>
+      <c r="AX96">
+        <v>1.95</v>
+      </c>
+      <c r="AY96">
+        <v>7.7</v>
+      </c>
+      <c r="AZ96">
+        <v>2.22</v>
+      </c>
+      <c r="BA96">
+        <v>1.22</v>
+      </c>
+      <c r="BB96">
+        <v>1.41</v>
+      </c>
+      <c r="BC96">
+        <v>1.73</v>
+      </c>
+      <c r="BD96">
+        <v>2.23</v>
+      </c>
+      <c r="BE96">
+        <v>3</v>
+      </c>
+      <c r="BF96">
+        <v>5</v>
+      </c>
+      <c r="BG96">
+        <v>3</v>
+      </c>
+      <c r="BH96">
+        <v>7</v>
+      </c>
+      <c r="BI96">
+        <v>5</v>
+      </c>
+      <c r="BJ96">
+        <v>12</v>
+      </c>
+      <c r="BK96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>4554518</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44997.89583333334</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s">
+        <v>75</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>110</v>
+      </c>
+      <c r="P97" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q97">
+        <v>7</v>
+      </c>
+      <c r="R97">
+        <v>6</v>
+      </c>
+      <c r="S97">
+        <v>13</v>
+      </c>
+      <c r="T97">
+        <v>3.8</v>
+      </c>
+      <c r="U97">
+        <v>1.91</v>
+      </c>
+      <c r="V97">
+        <v>3.2</v>
+      </c>
+      <c r="W97">
+        <v>1.57</v>
+      </c>
+      <c r="X97">
+        <v>2.25</v>
+      </c>
+      <c r="Y97">
+        <v>3.6</v>
+      </c>
+      <c r="Z97">
+        <v>1.25</v>
+      </c>
+      <c r="AA97">
+        <v>8.5</v>
+      </c>
+      <c r="AB97">
+        <v>1.04</v>
+      </c>
+      <c r="AC97">
+        <v>2.9</v>
+      </c>
+      <c r="AD97">
+        <v>2.8</v>
+      </c>
+      <c r="AE97">
+        <v>2.5</v>
+      </c>
+      <c r="AF97">
+        <v>1.1</v>
+      </c>
+      <c r="AG97">
+        <v>5.75</v>
+      </c>
+      <c r="AH97">
+        <v>1.5</v>
+      </c>
+      <c r="AI97">
+        <v>2.4</v>
+      </c>
+      <c r="AJ97">
+        <v>2.5</v>
+      </c>
+      <c r="AK97">
+        <v>1.48</v>
+      </c>
+      <c r="AL97">
+        <v>2.1</v>
+      </c>
+      <c r="AM97">
+        <v>1.65</v>
+      </c>
+      <c r="AN97">
+        <v>1.5</v>
+      </c>
+      <c r="AO97">
+        <v>1.4</v>
+      </c>
+      <c r="AP97">
+        <v>1.4</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1.5</v>
+      </c>
+      <c r="AS97">
+        <v>1.5</v>
+      </c>
+      <c r="AT97">
+        <v>1</v>
+      </c>
+      <c r="AU97">
+        <v>2.03</v>
+      </c>
+      <c r="AV97">
+        <v>0.85</v>
+      </c>
+      <c r="AW97">
+        <v>2.88</v>
+      </c>
+      <c r="AX97">
+        <v>2.05</v>
+      </c>
+      <c r="AY97">
+        <v>7.6</v>
+      </c>
+      <c r="AZ97">
+        <v>2.2</v>
+      </c>
+      <c r="BA97">
+        <v>1.27</v>
+      </c>
+      <c r="BB97">
+        <v>1.5</v>
+      </c>
+      <c r="BC97">
+        <v>1.87</v>
+      </c>
+      <c r="BD97">
+        <v>2.45</v>
+      </c>
+      <c r="BE97">
+        <v>3.4</v>
+      </c>
+      <c r="BF97">
+        <v>7</v>
+      </c>
+      <c r="BG97">
+        <v>3</v>
+      </c>
+      <c r="BH97">
+        <v>6</v>
+      </c>
+      <c r="BI97">
+        <v>8</v>
+      </c>
+      <c r="BJ97">
+        <v>13</v>
+      </c>
+      <c r="BK97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>4554520</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44998.875</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>153</v>
+      </c>
+      <c r="P98" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q98">
+        <v>6</v>
+      </c>
+      <c r="R98">
+        <v>10</v>
+      </c>
+      <c r="S98">
+        <v>16</v>
+      </c>
+      <c r="T98">
+        <v>2.38</v>
+      </c>
+      <c r="U98">
+        <v>2.05</v>
+      </c>
+      <c r="V98">
+        <v>6</v>
+      </c>
+      <c r="W98">
+        <v>1.5</v>
+      </c>
+      <c r="X98">
+        <v>2.5</v>
+      </c>
+      <c r="Y98">
+        <v>3.4</v>
+      </c>
+      <c r="Z98">
+        <v>1.3</v>
+      </c>
+      <c r="AA98">
+        <v>10</v>
+      </c>
+      <c r="AB98">
+        <v>1.06</v>
+      </c>
+      <c r="AC98">
+        <v>1.75</v>
+      </c>
+      <c r="AD98">
+        <v>3.3</v>
+      </c>
+      <c r="AE98">
+        <v>5</v>
+      </c>
+      <c r="AF98">
+        <v>1.1</v>
+      </c>
+      <c r="AG98">
+        <v>6.5</v>
+      </c>
+      <c r="AH98">
+        <v>1.44</v>
+      </c>
+      <c r="AI98">
+        <v>2.62</v>
+      </c>
+      <c r="AJ98">
+        <v>2.25</v>
+      </c>
+      <c r="AK98">
+        <v>1.58</v>
+      </c>
+      <c r="AL98">
+        <v>2.1</v>
+      </c>
+      <c r="AM98">
+        <v>1.67</v>
+      </c>
+      <c r="AN98">
+        <v>1.16</v>
+      </c>
+      <c r="AO98">
+        <v>1.3</v>
+      </c>
+      <c r="AP98">
+        <v>2.09</v>
+      </c>
+      <c r="AQ98">
+        <v>1.33</v>
+      </c>
+      <c r="AR98">
+        <v>1.5</v>
+      </c>
+      <c r="AS98">
+        <v>1.25</v>
+      </c>
+      <c r="AT98">
+        <v>1.33</v>
+      </c>
+      <c r="AU98">
+        <v>1.35</v>
+      </c>
+      <c r="AV98">
+        <v>0.91</v>
+      </c>
+      <c r="AW98">
+        <v>2.26</v>
+      </c>
+      <c r="AX98">
+        <v>1.29</v>
+      </c>
+      <c r="AY98">
+        <v>6.5</v>
+      </c>
+      <c r="AZ98">
+        <v>4.05</v>
+      </c>
+      <c r="BA98">
+        <v>1.24</v>
+      </c>
+      <c r="BB98">
+        <v>1.5</v>
+      </c>
+      <c r="BC98">
+        <v>1.87</v>
+      </c>
+      <c r="BD98">
+        <v>2.45</v>
+      </c>
+      <c r="BE98">
+        <v>3.3</v>
+      </c>
+      <c r="BF98">
+        <v>5</v>
+      </c>
+      <c r="BG98">
+        <v>6</v>
+      </c>
+      <c r="BH98">
+        <v>5</v>
+      </c>
+      <c r="BI98">
+        <v>5</v>
+      </c>
+      <c r="BJ98">
+        <v>10</v>
+      </c>
+      <c r="BK98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>4554516</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44998.875</v>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s">
+        <v>80</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>154</v>
+      </c>
+      <c r="P99" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q99">
+        <v>5</v>
+      </c>
+      <c r="R99">
+        <v>3</v>
+      </c>
+      <c r="S99">
+        <v>8</v>
+      </c>
+      <c r="T99">
+        <v>3.5</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
+        <v>3.6</v>
+      </c>
+      <c r="W99">
+        <v>1.53</v>
+      </c>
+      <c r="X99">
+        <v>2.38</v>
+      </c>
+      <c r="Y99">
+        <v>3.5</v>
+      </c>
+      <c r="Z99">
+        <v>1.29</v>
+      </c>
+      <c r="AA99">
+        <v>11</v>
+      </c>
+      <c r="AB99">
+        <v>1.05</v>
+      </c>
+      <c r="AC99">
+        <v>2.62</v>
+      </c>
+      <c r="AD99">
+        <v>3</v>
+      </c>
+      <c r="AE99">
+        <v>2.8</v>
+      </c>
+      <c r="AF99">
+        <v>1.11</v>
+      </c>
+      <c r="AG99">
+        <v>6</v>
+      </c>
+      <c r="AH99">
+        <v>1.5</v>
+      </c>
+      <c r="AI99">
+        <v>2.5</v>
+      </c>
+      <c r="AJ99">
+        <v>2.45</v>
+      </c>
+      <c r="AK99">
+        <v>1.5</v>
+      </c>
+      <c r="AL99">
+        <v>2</v>
+      </c>
+      <c r="AM99">
+        <v>1.75</v>
+      </c>
+      <c r="AN99">
+        <v>1.41</v>
+      </c>
+      <c r="AO99">
+        <v>1.35</v>
+      </c>
+      <c r="AP99">
+        <v>1.47</v>
+      </c>
+      <c r="AQ99">
+        <v>0.33</v>
+      </c>
+      <c r="AR99">
+        <v>0.33</v>
+      </c>
+      <c r="AS99">
+        <v>0.5</v>
+      </c>
+      <c r="AT99">
+        <v>0.5</v>
+      </c>
+      <c r="AU99">
+        <v>1.88</v>
+      </c>
+      <c r="AV99">
+        <v>1.94</v>
+      </c>
+      <c r="AW99">
+        <v>3.82</v>
+      </c>
+      <c r="AX99">
+        <v>1.76</v>
+      </c>
+      <c r="AY99">
+        <v>5.5</v>
+      </c>
+      <c r="AZ99">
+        <v>2.4</v>
+      </c>
+      <c r="BA99">
+        <v>1.26</v>
+      </c>
+      <c r="BB99">
+        <v>1.53</v>
+      </c>
+      <c r="BC99">
+        <v>1.92</v>
+      </c>
+      <c r="BD99">
+        <v>2.55</v>
+      </c>
+      <c r="BE99">
+        <v>3.5</v>
+      </c>
+      <c r="BF99">
+        <v>5</v>
+      </c>
+      <c r="BG99">
+        <v>8</v>
+      </c>
+      <c r="BH99">
+        <v>8</v>
+      </c>
+      <c r="BI99">
+        <v>4</v>
+      </c>
+      <c r="BJ99">
+        <v>13</v>
+      </c>
+      <c r="BK99">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4963,7 +4963,7 @@
         <v>2.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>1.33</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>0.67</v>
@@ -12271,7 +12271,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU58" t="n">
         <v>0.67</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT72" t="n">
         <v>1.33</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -17546,7 +17546,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
         <v>1.75</v>
@@ -18970,7 +18970,7 @@
         <v>1.5</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU91" t="n">
         <v>1.27</v>
@@ -20646,6 +20646,412 @@
       </c>
       <c r="BK99" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4554529</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45002.875</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['24', '75', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>6</v>
+      </c>
+      <c r="T100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4554532</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45003.6875</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['59', '73']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" t="n">
+        <v>7</v>
+      </c>
+      <c r="S101" t="n">
+        <v>9</v>
+      </c>
+      <c r="T101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,9 @@
     <t>['45+2', '85']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -668,6 +671,9 @@
   </si>
   <si>
     <t>['7', '74']</t>
+  </si>
+  <si>
+    <t>['5', '29']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK109"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1369,7 @@
         <v>2.5</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1464,7 +1470,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1846,7 +1852,7 @@
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2037,7 +2043,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2228,7 +2234,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2419,7 +2425,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2801,7 +2807,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3565,7 +3571,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3947,7 +3953,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4037,7 +4043,7 @@
         <v>0.33</v>
       </c>
       <c r="AT16">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4329,7 +4335,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4520,7 +4526,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4711,7 +4717,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4902,7 +4908,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4989,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5284,7 +5290,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5857,7 +5863,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6048,7 +6054,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6239,7 +6245,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6430,7 +6436,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6517,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
         <v>0.75</v>
@@ -6621,7 +6627,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7385,7 +7391,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7576,7 +7582,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7958,7 +7964,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8340,7 +8346,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8430,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8722,7 +8728,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8913,7 +8919,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9104,7 +9110,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9486,7 +9492,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9764,7 +9770,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -9955,10 +9961,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT47">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10059,7 +10065,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10823,7 +10829,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11014,7 +11020,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11205,7 +11211,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11587,7 +11593,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11677,7 +11683,7 @@
         <v>0.75</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.24</v>
@@ -11778,7 +11784,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11969,7 +11975,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12542,7 +12548,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12733,7 +12739,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12924,7 +12930,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13306,7 +13312,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13497,7 +13503,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13879,7 +13885,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14261,7 +14267,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14542,7 +14548,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU71">
         <v>1.42</v>
@@ -14834,7 +14840,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14924,7 +14930,7 @@
         <v>0.75</v>
       </c>
       <c r="AT73">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -15025,7 +15031,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15407,7 +15413,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15494,7 +15500,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT76">
         <v>2.4</v>
@@ -15980,7 +15986,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16171,7 +16177,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16258,10 +16264,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.91</v>
@@ -16362,7 +16368,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16452,7 +16458,7 @@
         <v>0.33</v>
       </c>
       <c r="AT81">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU81">
         <v>2.17</v>
@@ -16553,7 +16559,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16935,7 +16941,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17317,7 +17323,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17699,7 +17705,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18081,7 +18087,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19036,7 +19042,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19418,7 +19424,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19609,7 +19615,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19800,7 +19806,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19991,7 +19997,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20373,7 +20379,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20755,7 +20761,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20946,7 +20952,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21137,7 +21143,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21328,7 +21334,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21519,7 +21525,7 @@
         <v>96</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -21710,7 +21716,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -21852,6 +21858,579 @@
       </c>
       <c r="BK109">
         <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>4554526</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45005.77083333334</v>
+      </c>
+      <c r="F110">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>80</v>
+      </c>
+      <c r="H110" t="s">
+        <v>67</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>163</v>
+      </c>
+      <c r="P110" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q110">
+        <v>9</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>9</v>
+      </c>
+      <c r="T110">
+        <v>3.4</v>
+      </c>
+      <c r="U110">
+        <v>1.83</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>1.62</v>
+      </c>
+      <c r="X110">
+        <v>2.2</v>
+      </c>
+      <c r="Y110">
+        <v>4</v>
+      </c>
+      <c r="Z110">
+        <v>1.22</v>
+      </c>
+      <c r="AA110">
+        <v>15</v>
+      </c>
+      <c r="AB110">
+        <v>1.03</v>
+      </c>
+      <c r="AC110">
+        <v>2.45</v>
+      </c>
+      <c r="AD110">
+        <v>2.9</v>
+      </c>
+      <c r="AE110">
+        <v>3.2</v>
+      </c>
+      <c r="AF110">
+        <v>1.13</v>
+      </c>
+      <c r="AG110">
+        <v>5.25</v>
+      </c>
+      <c r="AH110">
+        <v>1.58</v>
+      </c>
+      <c r="AI110">
+        <v>2.25</v>
+      </c>
+      <c r="AJ110">
+        <v>2.88</v>
+      </c>
+      <c r="AK110">
+        <v>1.4</v>
+      </c>
+      <c r="AL110">
+        <v>2.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.57</v>
+      </c>
+      <c r="AN110">
+        <v>1.32</v>
+      </c>
+      <c r="AO110">
+        <v>1.39</v>
+      </c>
+      <c r="AP110">
+        <v>1.43</v>
+      </c>
+      <c r="AQ110">
+        <v>3</v>
+      </c>
+      <c r="AR110">
+        <v>1.33</v>
+      </c>
+      <c r="AS110">
+        <v>3</v>
+      </c>
+      <c r="AT110">
+        <v>1</v>
+      </c>
+      <c r="AU110">
+        <v>1.2</v>
+      </c>
+      <c r="AV110">
+        <v>1.6</v>
+      </c>
+      <c r="AW110">
+        <v>2.8</v>
+      </c>
+      <c r="AX110">
+        <v>1.92</v>
+      </c>
+      <c r="AY110">
+        <v>7.4</v>
+      </c>
+      <c r="AZ110">
+        <v>2.29</v>
+      </c>
+      <c r="BA110">
+        <v>1.34</v>
+      </c>
+      <c r="BB110">
+        <v>1.7</v>
+      </c>
+      <c r="BC110">
+        <v>2.11</v>
+      </c>
+      <c r="BD110">
+        <v>2.84</v>
+      </c>
+      <c r="BE110">
+        <v>4</v>
+      </c>
+      <c r="BF110">
+        <v>3</v>
+      </c>
+      <c r="BG110">
+        <v>2</v>
+      </c>
+      <c r="BH110">
+        <v>7</v>
+      </c>
+      <c r="BI110">
+        <v>3</v>
+      </c>
+      <c r="BJ110">
+        <v>10</v>
+      </c>
+      <c r="BK110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>4554531</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45005.875</v>
+      </c>
+      <c r="F111">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>96</v>
+      </c>
+      <c r="P111" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q111">
+        <v>6</v>
+      </c>
+      <c r="R111">
+        <v>6</v>
+      </c>
+      <c r="S111">
+        <v>12</v>
+      </c>
+      <c r="T111">
+        <v>3.5</v>
+      </c>
+      <c r="U111">
+        <v>1.95</v>
+      </c>
+      <c r="V111">
+        <v>3.5</v>
+      </c>
+      <c r="W111">
+        <v>1.53</v>
+      </c>
+      <c r="X111">
+        <v>2.38</v>
+      </c>
+      <c r="Y111">
+        <v>3.5</v>
+      </c>
+      <c r="Z111">
+        <v>1.29</v>
+      </c>
+      <c r="AA111">
+        <v>11</v>
+      </c>
+      <c r="AB111">
+        <v>1.05</v>
+      </c>
+      <c r="AC111">
+        <v>2.75</v>
+      </c>
+      <c r="AD111">
+        <v>3</v>
+      </c>
+      <c r="AE111">
+        <v>2.7</v>
+      </c>
+      <c r="AF111">
+        <v>1.08</v>
+      </c>
+      <c r="AG111">
+        <v>6.2</v>
+      </c>
+      <c r="AH111">
+        <v>1.42</v>
+      </c>
+      <c r="AI111">
+        <v>2.6</v>
+      </c>
+      <c r="AJ111">
+        <v>2.35</v>
+      </c>
+      <c r="AK111">
+        <v>1.52</v>
+      </c>
+      <c r="AL111">
+        <v>2</v>
+      </c>
+      <c r="AM111">
+        <v>1.75</v>
+      </c>
+      <c r="AN111">
+        <v>1.48</v>
+      </c>
+      <c r="AO111">
+        <v>1.4</v>
+      </c>
+      <c r="AP111">
+        <v>1.44</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>0.75</v>
+      </c>
+      <c r="AS111">
+        <v>1.75</v>
+      </c>
+      <c r="AT111">
+        <v>0.8</v>
+      </c>
+      <c r="AU111">
+        <v>1.37</v>
+      </c>
+      <c r="AV111">
+        <v>1.94</v>
+      </c>
+      <c r="AW111">
+        <v>3.31</v>
+      </c>
+      <c r="AX111">
+        <v>1.97</v>
+      </c>
+      <c r="AY111">
+        <v>8.4</v>
+      </c>
+      <c r="AZ111">
+        <v>2.14</v>
+      </c>
+      <c r="BA111">
+        <v>1.34</v>
+      </c>
+      <c r="BB111">
+        <v>1.7</v>
+      </c>
+      <c r="BC111">
+        <v>2.11</v>
+      </c>
+      <c r="BD111">
+        <v>2.8</v>
+      </c>
+      <c r="BE111">
+        <v>3.92</v>
+      </c>
+      <c r="BF111">
+        <v>3</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>5</v>
+      </c>
+      <c r="BI111">
+        <v>8</v>
+      </c>
+      <c r="BJ111">
+        <v>8</v>
+      </c>
+      <c r="BK111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>4554528</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45005.875</v>
+      </c>
+      <c r="F112">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>91</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>96</v>
+      </c>
+      <c r="P112" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q112">
+        <v>9</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>11</v>
+      </c>
+      <c r="T112">
+        <v>2.5</v>
+      </c>
+      <c r="U112">
+        <v>2.05</v>
+      </c>
+      <c r="V112">
+        <v>5.5</v>
+      </c>
+      <c r="W112">
+        <v>1.5</v>
+      </c>
+      <c r="X112">
+        <v>2.5</v>
+      </c>
+      <c r="Y112">
+        <v>3.4</v>
+      </c>
+      <c r="Z112">
+        <v>1.3</v>
+      </c>
+      <c r="AA112">
+        <v>10</v>
+      </c>
+      <c r="AB112">
+        <v>1.06</v>
+      </c>
+      <c r="AC112">
+        <v>1.8</v>
+      </c>
+      <c r="AD112">
+        <v>3.25</v>
+      </c>
+      <c r="AE112">
+        <v>4.75</v>
+      </c>
+      <c r="AF112">
+        <v>1.06</v>
+      </c>
+      <c r="AG112">
+        <v>7</v>
+      </c>
+      <c r="AH112">
+        <v>1.4</v>
+      </c>
+      <c r="AI112">
+        <v>2.7</v>
+      </c>
+      <c r="AJ112">
+        <v>2.25</v>
+      </c>
+      <c r="AK112">
+        <v>1.58</v>
+      </c>
+      <c r="AL112">
+        <v>2.05</v>
+      </c>
+      <c r="AM112">
+        <v>1.7</v>
+      </c>
+      <c r="AN112">
+        <v>1.18</v>
+      </c>
+      <c r="AO112">
+        <v>1.28</v>
+      </c>
+      <c r="AP112">
+        <v>1.95</v>
+      </c>
+      <c r="AQ112">
+        <v>2.33</v>
+      </c>
+      <c r="AR112">
+        <v>0.33</v>
+      </c>
+      <c r="AS112">
+        <v>1.75</v>
+      </c>
+      <c r="AT112">
+        <v>1</v>
+      </c>
+      <c r="AU112">
+        <v>1.67</v>
+      </c>
+      <c r="AV112">
+        <v>1.42</v>
+      </c>
+      <c r="AW112">
+        <v>3.09</v>
+      </c>
+      <c r="AX112">
+        <v>1.33</v>
+      </c>
+      <c r="AY112">
+        <v>6.5</v>
+      </c>
+      <c r="AZ112">
+        <v>3.75</v>
+      </c>
+      <c r="BA112">
+        <v>1.2</v>
+      </c>
+      <c r="BB112">
+        <v>1.41</v>
+      </c>
+      <c r="BC112">
+        <v>1.74</v>
+      </c>
+      <c r="BD112">
+        <v>2.13</v>
+      </c>
+      <c r="BE112">
+        <v>2.93</v>
+      </c>
+      <c r="BF112">
+        <v>2</v>
+      </c>
+      <c r="BG112">
+        <v>5</v>
+      </c>
+      <c r="BH112">
+        <v>4</v>
+      </c>
+      <c r="BI112">
+        <v>3</v>
+      </c>
+      <c r="BJ112">
+        <v>6</v>
+      </c>
+      <c r="BK112">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['17', '53', '69', '90+3']</t>
   </si>
   <si>
     <t>['7', '43', '82', '86']</t>
@@ -1035,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1470,7 +1473,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1852,7 +1855,7 @@
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2043,7 +2046,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2234,7 +2237,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2425,7 +2428,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2807,7 +2810,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3571,7 +3574,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3658,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT14">
         <v>0.25</v>
@@ -3953,7 +3956,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4335,7 +4338,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4526,7 +4529,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4717,7 +4720,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4908,7 +4911,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5290,7 +5293,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5571,7 +5574,7 @@
         <v>1.6</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>1.71</v>
@@ -5863,7 +5866,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6054,7 +6057,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6245,7 +6248,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6436,7 +6439,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6627,7 +6630,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7391,7 +7394,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7582,7 +7585,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7860,7 +7863,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT36">
         <v>1.5</v>
@@ -7964,7 +7967,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8346,7 +8349,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8728,7 +8731,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8919,7 +8922,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9110,7 +9113,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9492,7 +9495,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10065,7 +10068,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10829,7 +10832,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11020,7 +11023,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11211,7 +11214,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11492,7 +11495,7 @@
         <v>1.2</v>
       </c>
       <c r="AT55">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU55">
         <v>1.5</v>
@@ -11593,7 +11596,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11784,7 +11787,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11975,7 +11978,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12548,7 +12551,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12739,7 +12742,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12930,7 +12933,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13017,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13312,7 +13315,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13503,7 +13506,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13885,7 +13888,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14267,7 +14270,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14840,7 +14843,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15031,7 +15034,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15121,7 +15124,7 @@
         <v>1.2</v>
       </c>
       <c r="AT74">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU74">
         <v>1.4</v>
@@ -15413,7 +15416,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15986,7 +15989,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16177,7 +16180,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16368,7 +16371,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16559,7 +16562,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16941,7 +16944,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17323,7 +17326,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17705,7 +17708,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18087,7 +18090,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19042,7 +19045,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19424,7 +19427,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19615,7 +19618,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19702,7 +19705,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT98">
         <v>1.33</v>
@@ -19806,7 +19809,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19997,7 +20000,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20379,7 +20382,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20761,7 +20764,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20952,7 +20955,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21143,7 +21146,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21334,7 +21337,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21525,7 +21528,7 @@
         <v>96</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -21716,7 +21719,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22289,7 +22292,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22431,6 +22434,197 @@
       </c>
       <c r="BK112">
         <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>4554521</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45006.875</v>
+      </c>
+      <c r="F113">
+        <v>8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>164</v>
+      </c>
+      <c r="P113" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113">
+        <v>8</v>
+      </c>
+      <c r="T113">
+        <v>2.38</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>6</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>2.5</v>
+      </c>
+      <c r="Y113">
+        <v>3.4</v>
+      </c>
+      <c r="Z113">
+        <v>1.3</v>
+      </c>
+      <c r="AA113">
+        <v>10</v>
+      </c>
+      <c r="AB113">
+        <v>1.06</v>
+      </c>
+      <c r="AC113">
+        <v>1.68</v>
+      </c>
+      <c r="AD113">
+        <v>3.43</v>
+      </c>
+      <c r="AE113">
+        <v>4.9</v>
+      </c>
+      <c r="AF113">
+        <v>1.04</v>
+      </c>
+      <c r="AG113">
+        <v>7.4</v>
+      </c>
+      <c r="AH113">
+        <v>1.39</v>
+      </c>
+      <c r="AI113">
+        <v>2.71</v>
+      </c>
+      <c r="AJ113">
+        <v>2.2</v>
+      </c>
+      <c r="AK113">
+        <v>1.6</v>
+      </c>
+      <c r="AL113">
+        <v>2.1</v>
+      </c>
+      <c r="AM113">
+        <v>1.67</v>
+      </c>
+      <c r="AN113">
+        <v>1.15</v>
+      </c>
+      <c r="AO113">
+        <v>1.29</v>
+      </c>
+      <c r="AP113">
+        <v>2.15</v>
+      </c>
+      <c r="AQ113">
+        <v>1.25</v>
+      </c>
+      <c r="AR113">
+        <v>0.67</v>
+      </c>
+      <c r="AS113">
+        <v>1.6</v>
+      </c>
+      <c r="AT113">
+        <v>0.5</v>
+      </c>
+      <c r="AU113">
+        <v>1.35</v>
+      </c>
+      <c r="AV113">
+        <v>1.18</v>
+      </c>
+      <c r="AW113">
+        <v>2.53</v>
+      </c>
+      <c r="AX113">
+        <v>1.31</v>
+      </c>
+      <c r="AY113">
+        <v>9.5</v>
+      </c>
+      <c r="AZ113">
+        <v>4.4</v>
+      </c>
+      <c r="BA113">
+        <v>1.32</v>
+      </c>
+      <c r="BB113">
+        <v>1.49</v>
+      </c>
+      <c r="BC113">
+        <v>2</v>
+      </c>
+      <c r="BD113">
+        <v>2.45</v>
+      </c>
+      <c r="BE113">
+        <v>3.3</v>
+      </c>
+      <c r="BF113">
+        <v>7</v>
+      </c>
+      <c r="BG113">
+        <v>2</v>
+      </c>
+      <c r="BH113">
+        <v>4</v>
+      </c>
+      <c r="BI113">
+        <v>4</v>
+      </c>
+      <c r="BJ113">
+        <v>11</v>
+      </c>
+      <c r="BK113">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT2" t="n">
         <v>0.8</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT6" t="n">
         <v>1.4</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT7" t="n">
         <v>2.4</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.4</v>
@@ -2933,7 +2933,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
         <v>2.4</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT22" t="n">
         <v>1.5</v>
@@ -5166,7 +5166,7 @@
         <v>0.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.17</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
         <v>1.4</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.4</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU33" t="n">
         <v>1.74</v>
@@ -7399,7 +7399,7 @@
         <v>1.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU34" t="n">
         <v>1.36</v>
@@ -7602,7 +7602,7 @@
         <v>1.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -7805,7 +7805,7 @@
         <v>1.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU36" t="n">
         <v>1.26</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU38" t="n">
         <v>1.72</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.76</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT41" t="n">
         <v>1.4</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU42" t="n">
         <v>0.67</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU43" t="n">
         <v>1.92</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
         <v>2.4</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT49" t="n">
         <v>1.4</v>
@@ -11256,7 +11256,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU53" t="n">
         <v>1.66</v>
@@ -12068,7 +12068,7 @@
         <v>1.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>1.13</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT58" t="n">
         <v>1.4</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU59" t="n">
         <v>2.03</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.46</v>
@@ -12880,7 +12880,7 @@
         <v>1.2</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.14</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU62" t="n">
         <v>2.1</v>
@@ -13286,7 +13286,7 @@
         <v>1.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.24</v>
@@ -13486,10 +13486,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU64" t="n">
         <v>1.26</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>2.06</v>
@@ -13892,10 +13892,10 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU66" t="n">
         <v>1.25</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU67" t="n">
         <v>2.03</v>
@@ -14298,10 +14298,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU68" t="n">
         <v>1.49</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU69" t="n">
         <v>0.49</v>
@@ -14704,10 +14704,10 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT71" t="n">
         <v>0.8</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
         <v>0.8</v>
@@ -17143,7 +17143,7 @@
         <v>1.2</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU82" t="n">
         <v>1.61</v>
@@ -17952,10 +17952,10 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU86" t="n">
         <v>0.74</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -18358,10 +18358,10 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -18561,10 +18561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.5</v>
@@ -18764,10 +18764,10 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -18967,7 +18967,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT91" t="n">
         <v>1.4</v>
@@ -19170,10 +19170,10 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU92" t="n">
         <v>0.97</v>
@@ -19373,10 +19373,10 @@
         <v>1.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU93" t="n">
         <v>1.84</v>
@@ -19576,10 +19576,10 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU94" t="n">
         <v>1.81</v>
@@ -19779,10 +19779,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.86</v>
@@ -19982,10 +19982,10 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT96" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>2.03</v>
@@ -20185,10 +20185,10 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20391,7 +20391,7 @@
         <v>1.6</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -20591,10 +20591,10 @@
         <v>0.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU99" t="n">
         <v>1.88</v>
@@ -23487,6 +23487,2848 @@
         <v>11</v>
       </c>
       <c r="BK113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4554544</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45015.83333333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>6</v>
+      </c>
+      <c r="S114" t="n">
+        <v>10</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4554535</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45015.89583333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['51', '71', '90+1']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>7</v>
+      </c>
+      <c r="T115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4554538</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45016.79166666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['22', '60', '82']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>7</v>
+      </c>
+      <c r="R116" t="n">
+        <v>8</v>
+      </c>
+      <c r="S116" t="n">
+        <v>15</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V116" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4554539</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45016.79166666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['25', '34', '46']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V117" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4554536</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45016.89583333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>3</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>6</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V118" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X118" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4554542</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45017.64583333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3</v>
+      </c>
+      <c r="N119" t="n">
+        <v>3</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['28', '34', '41']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>6</v>
+      </c>
+      <c r="S119" t="n">
+        <v>6</v>
+      </c>
+      <c r="T119" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4554540</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45017.79166666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>7</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>8</v>
+      </c>
+      <c r="T120" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U120" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V120" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4554537</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45017.8125</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['47', '56']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>3</v>
+      </c>
+      <c r="S121" t="n">
+        <v>8</v>
+      </c>
+      <c r="T121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V121" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4554534</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45017.89583333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>3</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['36', '90+9']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>6</v>
+      </c>
+      <c r="R122" t="n">
+        <v>3</v>
+      </c>
+      <c r="S122" t="n">
+        <v>9</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5019500</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45018.6875</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['8', '64', '78']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>8</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2</v>
+      </c>
+      <c r="S123" t="n">
+        <v>10</v>
+      </c>
+      <c r="T123" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4554541</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45018.79166666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>6</v>
+      </c>
+      <c r="R124" t="n">
+        <v>6</v>
+      </c>
+      <c r="S124" t="n">
+        <v>12</v>
+      </c>
+      <c r="T124" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4554543</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45018.89583333334</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['20', '27']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>6</v>
+      </c>
+      <c r="R125" t="n">
+        <v>4</v>
+      </c>
+      <c r="S125" t="n">
+        <v>10</v>
+      </c>
+      <c r="T125" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V125" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5019499</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45019.83333333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>9</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>11</v>
+      </c>
+      <c r="T126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2</v>
+      </c>
+      <c r="V126" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4554533</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45019.89583333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>6</v>
+      </c>
+      <c r="R127" t="n">
+        <v>4</v>
+      </c>
+      <c r="S127" t="n">
+        <v>10</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V127" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK127" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1.4</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0.4</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
         <v>0.2</v>
@@ -4354,7 +4354,7 @@
         <v>0.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>0.6</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>1.5</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>1.4</v>
@@ -8008,7 +8008,7 @@
         <v>2.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -9429,7 +9429,7 @@
         <v>1.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU44" t="n">
         <v>1.83</v>
@@ -9835,7 +9835,7 @@
         <v>1.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU46" t="n">
         <v>2.16</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU51" t="n">
         <v>0.67</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT61" t="n">
         <v>2.5</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>2.25</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.25</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>0.5</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
         <v>2.4</v>
@@ -16128,7 +16128,7 @@
         <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU77" t="n">
         <v>1.19</v>
@@ -16331,7 +16331,7 @@
         <v>3</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU78" t="n">
         <v>0.82</v>
@@ -16534,7 +16534,7 @@
         <v>0.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU79" t="n">
         <v>1.59</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT82" t="n">
         <v>1.25</v>
@@ -18158,7 +18158,7 @@
         <v>2.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -20388,7 +20388,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT98" t="n">
         <v>1.75</v>
@@ -21403,7 +21403,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.75</v>
@@ -21609,7 +21609,7 @@
         <v>1.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU104" t="n">
         <v>1.17</v>
@@ -22218,7 +22218,7 @@
         <v>1.6</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU107" t="n">
         <v>1.64</v>
@@ -22418,10 +22418,10 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU108" t="n">
         <v>1.46</v>
@@ -23027,7 +23027,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>0.8</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT113" t="n">
         <v>0.5</v>
@@ -26278,7 +26278,7 @@
         <v>1.8</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.29</v>
@@ -26329,6 +26329,818 @@
         <v>13</v>
       </c>
       <c r="BK127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4554556</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45023.79166666666</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>3</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['5', '45+5', '88']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>8</v>
+      </c>
+      <c r="S128" t="n">
+        <v>8</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2</v>
+      </c>
+      <c r="V128" t="n">
+        <v>5</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5019501</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45023.79166666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>10</v>
+      </c>
+      <c r="R129" t="n">
+        <v>3</v>
+      </c>
+      <c r="S129" t="n">
+        <v>13</v>
+      </c>
+      <c r="T129" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4554546</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45023.89583333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>3</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>4</v>
+      </c>
+      <c r="L130" t="n">
+        <v>3</v>
+      </c>
+      <c r="M130" t="n">
+        <v>3</v>
+      </c>
+      <c r="N130" t="n">
+        <v>6</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['22', '30', '38']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['4', '83', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>3</v>
+      </c>
+      <c r="S130" t="n">
+        <v>8</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V130" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4554547</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45023.89583333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['50', '55', '69']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>5</v>
+      </c>
+      <c r="R131" t="n">
+        <v>3</v>
+      </c>
+      <c r="S131" t="n">
+        <v>8</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V131" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK131" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>1.4</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT17" t="n">
         <v>1.25</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT19" t="n">
         <v>0.8</v>
@@ -4557,7 +4557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT23" t="n">
         <v>1.75</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.71</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>2.5</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT27" t="n">
         <v>1.4</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>1.75</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT29" t="n">
         <v>0.8</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.53</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT33" t="n">
         <v>0.4</v>
@@ -8414,7 +8414,7 @@
         <v>2.25</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>2.2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>1.4</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT46" t="n">
         <v>0.8</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU48" t="n">
         <v>2.98</v>
@@ -10444,7 +10444,7 @@
         <v>2.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU49" t="n">
         <v>2.25</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU50" t="n">
         <v>1.84</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT51" t="n">
         <v>0.8</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.84</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT53" t="n">
         <v>1.75</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT54" t="n">
         <v>1.75</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.5</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -12271,7 +12271,7 @@
         <v>1.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU58" t="n">
         <v>0.67</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT64" t="n">
         <v>0.6</v>
@@ -14910,7 +14910,7 @@
         <v>1.8</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.42</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU72" t="n">
         <v>1.44</v>
@@ -15313,7 +15313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.4</v>
@@ -15719,10 +15719,10 @@
         <v>0.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT77" t="n">
         <v>0.8</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT78" t="n">
         <v>0.8</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT79" t="n">
         <v>1.4</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.91</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU81" t="n">
         <v>2.17</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -17749,7 +17749,7 @@
         <v>3</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
         <v>1.75</v>
@@ -18764,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT90" t="n">
         <v>2.5</v>
@@ -18970,7 +18970,7 @@
         <v>1.8</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU91" t="n">
         <v>1.27</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.12</v>
@@ -21200,10 +21200,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU102" t="n">
         <v>1.71</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT104" t="n">
         <v>0.8</v>
@@ -21809,10 +21809,10 @@
         <v>1.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,10 +22012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22215,7 +22215,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT107" t="n">
         <v>1.4</v>
@@ -22621,10 +22621,10 @@
         <v>2.25</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU110" t="n">
         <v>1.2</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU111" t="n">
         <v>1.37</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -23436,7 +23436,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT114" t="n">
         <v>1.25</v>
@@ -27141,6 +27141,2036 @@
         <v>12</v>
       </c>
       <c r="BK131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5019502</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45024.64583333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['50', '90+1']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>7</v>
+      </c>
+      <c r="R132" t="n">
+        <v>5</v>
+      </c>
+      <c r="S132" t="n">
+        <v>12</v>
+      </c>
+      <c r="T132" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4554554</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45024.75</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>3</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['40', '45+4', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>7</v>
+      </c>
+      <c r="R133" t="n">
+        <v>6</v>
+      </c>
+      <c r="S133" t="n">
+        <v>13</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V133" t="n">
+        <v>4</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4554552</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45024.75</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>3</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['8', '55', '90+9']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>4</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>6</v>
+      </c>
+      <c r="T134" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4554549</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>3</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3</v>
+      </c>
+      <c r="N135" t="n">
+        <v>4</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['7', '19', '58']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>6</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>11</v>
+      </c>
+      <c r="T135" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4554545</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['3', '85']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>10</v>
+      </c>
+      <c r="R136" t="n">
+        <v>6</v>
+      </c>
+      <c r="S136" t="n">
+        <v>16</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4554550</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45025.58333333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['50', '86']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>4</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>8</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4554555</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45025.58333333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2</v>
+      </c>
+      <c r="R138" t="n">
+        <v>10</v>
+      </c>
+      <c r="S138" t="n">
+        <v>12</v>
+      </c>
+      <c r="T138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4554551</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45025.6875</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>5</v>
+      </c>
+      <c r="R139" t="n">
+        <v>7</v>
+      </c>
+      <c r="S139" t="n">
+        <v>12</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4554553</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45025.79166666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['11', '17', '60']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>4</v>
+      </c>
+      <c r="R140" t="n">
+        <v>3</v>
+      </c>
+      <c r="S140" t="n">
+        <v>7</v>
+      </c>
+      <c r="T140" t="n">
+        <v>4</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4554548</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45025.89583333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['1', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>4</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" t="n">
+        <v>4</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V141" t="n">
+        <v>5</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK141" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>2.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1.2</v>
@@ -2527,7 +2527,7 @@
         <v>0.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>0.6</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.6</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT22" t="n">
         <v>1.2</v>
@@ -5166,7 +5166,7 @@
         <v>0.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>1.67</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>0.2</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>0.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.92</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT49" t="n">
         <v>1.67</v>
@@ -11256,7 +11256,7 @@
         <v>1.33</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU53" t="n">
         <v>1.66</v>
@@ -11459,7 +11459,7 @@
         <v>0.4</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>1.63</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.13</v>
@@ -12677,7 +12677,7 @@
         <v>2.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.46</v>
@@ -13954,7 +13954,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>4554493</v>
+        <v>5019492</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -13974,182 +13974,182 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Newell's Old Boys</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '41', '60']</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T67" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U67" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V67" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W67" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X67" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y67" t="n">
-        <v>4</v>
+        <v>3.72</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AA67" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC67" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD67" t="n">
-        <v>2.75</v>
+        <v>2.89</v>
       </c>
       <c r="AE67" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="AF67" t="n">
         <v>1.1</v>
       </c>
       <c r="AG67" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="AH67" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AJ67" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AL67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AM67" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AN67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO67" t="n">
         <v>1.37</v>
       </c>
-      <c r="AO67" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AP67" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU67" t="n">
         <v>1.49</v>
       </c>
-      <c r="AQ67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>2.03</v>
-      </c>
       <c r="AV67" t="n">
-        <v>1.22</v>
+        <v>1.95</v>
       </c>
       <c r="AW67" t="n">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="AX67" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AY67" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ67" t="n">
-        <v>2.28</v>
+        <v>2.53</v>
       </c>
       <c r="BA67" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="BB67" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="BC67" t="n">
-        <v>1.85</v>
+        <v>2.26</v>
       </c>
       <c r="BD67" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="BE67" t="n">
-        <v>3.28</v>
+        <v>4.5</v>
       </c>
       <c r="BF67" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BG67" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BH67" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI67" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ67" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK67" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -14157,7 +14157,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>5019492</v>
+        <v>4554493</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -14177,182 +14177,182 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Newell's Old Boys</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>8</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V68" t="n">
         <v>4</v>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>['21', '41', '60']</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>['63']</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
-        <v>2</v>
-      </c>
-      <c r="R68" t="n">
-        <v>3</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
-      <c r="T68" t="n">
-        <v>3</v>
-      </c>
-      <c r="U68" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V68" t="n">
-        <v>4.2</v>
-      </c>
       <c r="W68" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X68" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y68" t="n">
-        <v>3.72</v>
+        <v>4</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AA68" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AB68" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC68" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD68" t="n">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="AE68" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="AF68" t="n">
         <v>1.1</v>
       </c>
       <c r="AG68" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="AH68" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AI68" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="AK68" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AL68" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AM68" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AN68" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AO68" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AQ68" t="n">
         <v>1</v>
       </c>
       <c r="AR68" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AU68" t="n">
-        <v>1.49</v>
+        <v>2.03</v>
       </c>
       <c r="AV68" t="n">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
       <c r="AW68" t="n">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="AX68" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AY68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ68" t="n">
-        <v>2.53</v>
+        <v>2.28</v>
       </c>
       <c r="BA68" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="BB68" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="BC68" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="BD68" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="BE68" t="n">
-        <v>4.5</v>
+        <v>3.28</v>
       </c>
       <c r="BF68" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BG68" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BH68" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BI68" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BJ68" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BK68" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT69" t="n">
         <v>0.2</v>
@@ -14707,7 +14707,7 @@
         <v>2.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>0.67</v>
@@ -17143,7 +17143,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.61</v>
@@ -17752,7 +17752,7 @@
         <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -17952,7 +17952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT86" t="n">
         <v>1.4</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT87" t="n">
         <v>0.67</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.6</v>
@@ -18967,7 +18967,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT91" t="n">
         <v>1.33</v>
@@ -19173,7 +19173,7 @@
         <v>1.25</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU92" t="n">
         <v>0.97</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.5</v>
@@ -20188,7 +20188,7 @@
         <v>2.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20391,7 +20391,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -21406,7 +21406,7 @@
         <v>1.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -23639,7 +23639,7 @@
         <v>1.33</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.42</v>
@@ -23839,7 +23839,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT115" t="n">
         <v>0.6</v>
@@ -24451,7 +24451,7 @@
         <v>2.25</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
         <v>1.5</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU122" t="n">
         <v>1.77</v>
@@ -25463,7 +25463,7 @@
         <v>2.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT123" t="n">
         <v>2.5</v>
@@ -25869,10 +25869,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU125" t="n">
         <v>1.92</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT127" t="n">
         <v>0.67</v>
@@ -26337,7 +26337,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>4554556</v>
+        <v>5019501</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -26357,35 +26357,35 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lanús</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Arsenal de Sarandí</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>['5', '45+5', '88']</t>
+          <t>['90+3']</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -26394,67 +26394,67 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R128" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S128" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X128" t="n">
         <v>2.38</v>
       </c>
-      <c r="U128" t="n">
-        <v>2</v>
-      </c>
-      <c r="V128" t="n">
-        <v>5</v>
-      </c>
-      <c r="W128" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X128" t="n">
-        <v>2.62</v>
-      </c>
       <c r="Y128" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z128" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB128" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC128" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD128" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AE128" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="AF128" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AG128" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH128" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AI128" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AJ128" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AK128" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AL128" t="n">
         <v>2.1</v>
@@ -26463,76 +26463,76 @@
         <v>1.67</v>
       </c>
       <c r="AN128" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AO128" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="AQ128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR128" t="n">
         <v>1.75</v>
       </c>
-      <c r="AR128" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AS128" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.67</v>
+        <v>1.4</v>
       </c>
       <c r="AU128" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AV128" t="n">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AW128" t="n">
-        <v>2.24</v>
+        <v>2.64</v>
       </c>
       <c r="AX128" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="AY128" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AZ128" t="n">
-        <v>3.82</v>
+        <v>1.95</v>
       </c>
       <c r="BA128" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="BB128" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="BC128" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BD128" t="n">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="BE128" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="BF128" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BG128" t="n">
         <v>4</v>
       </c>
       <c r="BH128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI128" t="n">
         <v>4</v>
       </c>
-      <c r="BI128" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ128" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK128" t="n">
         <v>8</v>
-      </c>
-      <c r="BK128" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -26540,7 +26540,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>5019501</v>
+        <v>4554556</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -26560,35 +26560,35 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Lanús</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Arsenal de Sarandí</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['5', '45+5', '88']</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -26597,67 +26597,67 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S129" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T129" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="U129" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V129" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="W129" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X129" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="Y129" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z129" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB129" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC129" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD129" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AE129" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AF129" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AG129" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH129" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AI129" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AJ129" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AK129" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AL129" t="n">
         <v>2.1</v>
@@ -26666,76 +26666,76 @@
         <v>1.67</v>
       </c>
       <c r="AN129" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AO129" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AR129" t="n">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.4</v>
+        <v>0.67</v>
       </c>
       <c r="AU129" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AV129" t="n">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AW129" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="AX129" t="n">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="AY129" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AZ129" t="n">
-        <v>1.95</v>
+        <v>3.82</v>
       </c>
       <c r="BA129" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="BB129" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="BC129" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BD129" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="BE129" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BF129" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BG129" t="n">
         <v>4</v>
       </c>
       <c r="BH129" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI129" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ129" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="BK129" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
@@ -27352,7 +27352,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>4554554</v>
+        <v>4554552</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -27372,182 +27372,182 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Unión Santa Fe</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8', '55', '90+9']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>['40', '45+4', '90+3']</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R133" t="n">
+        <v>2</v>
+      </c>
+      <c r="S133" t="n">
         <v>6</v>
       </c>
-      <c r="S133" t="n">
-        <v>13</v>
-      </c>
       <c r="T133" t="n">
-        <v>2.88</v>
+        <v>4.28</v>
       </c>
       <c r="U133" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V133" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="W133" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="X133" t="n">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="Y133" t="n">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="Z133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP133" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA133" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH133" t="n">
+      <c r="AQ133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR133" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI133" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO133" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP133" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ133" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR133" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AS133" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AU133" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AV133" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AW133" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="AX133" t="n">
-        <v>1.41</v>
+        <v>2.45</v>
       </c>
       <c r="AY133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ133" t="n">
-        <v>3.56</v>
+        <v>1.69</v>
       </c>
       <c r="BA133" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="BB133" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="BC133" t="n">
-        <v>1.98</v>
+        <v>1.42</v>
       </c>
       <c r="BD133" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="BE133" t="n">
-        <v>3.5</v>
+        <v>2.18</v>
       </c>
       <c r="BF133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG133" t="n">
         <v>6</v>
       </c>
       <c r="BH133" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI133" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ133" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK133" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -27555,7 +27555,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>4554552</v>
+        <v>4554554</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -27575,182 +27575,182 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Unión Santa Fe</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['40', '45+4', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>7</v>
+      </c>
+      <c r="R134" t="n">
+        <v>6</v>
+      </c>
+      <c r="S134" t="n">
+        <v>13</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V134" t="n">
         <v>4</v>
       </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>['8', '55', '90+9']</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>['67']</t>
-        </is>
-      </c>
-      <c r="Q134" t="n">
-        <v>4</v>
-      </c>
-      <c r="R134" t="n">
-        <v>2</v>
-      </c>
-      <c r="S134" t="n">
+      <c r="W134" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG134" t="n">
         <v>6</v>
       </c>
-      <c r="T134" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U134" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V134" t="n">
+      <c r="AH134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW134" t="n">
         <v>2.75</v>
       </c>
-      <c r="W134" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X134" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Y134" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Z134" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA134" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB134" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK134" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AL134" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM134" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN134" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AO134" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP134" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AQ134" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR134" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS134" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AU134" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AV134" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AW134" t="n">
-        <v>2.87</v>
-      </c>
       <c r="AX134" t="n">
-        <v>2.45</v>
+        <v>1.41</v>
       </c>
       <c r="AY134" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ134" t="n">
-        <v>1.69</v>
+        <v>3.56</v>
       </c>
       <c r="BA134" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="BB134" t="n">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="BC134" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="BD134" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="BE134" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="BF134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG134" t="n">
         <v>6</v>
       </c>
       <c r="BH134" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI134" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ134" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BK134" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
@@ -29172,6 +29172,1021 @@
       </c>
       <c r="BK141" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4554567</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45027.58333333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3</v>
+      </c>
+      <c r="R142" t="n">
+        <v>4</v>
+      </c>
+      <c r="S142" t="n">
+        <v>7</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4554559</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45027.79166666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
+      <c r="L143" t="n">
+        <v>5</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>6</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['21', '30', '40', '53', '78']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>5</v>
+      </c>
+      <c r="R143" t="n">
+        <v>6</v>
+      </c>
+      <c r="S143" t="n">
+        <v>11</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V143" t="n">
+        <v>5</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5019504</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45027.89583333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>11</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2</v>
+      </c>
+      <c r="S144" t="n">
+        <v>6</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4554568</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45027.89583333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['12', '54', '76']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>6</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2</v>
+      </c>
+      <c r="S145" t="n">
+        <v>8</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4554557</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45027.89583333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>7</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5</v>
+      </c>
+      <c r="S146" t="n">
+        <v>12</v>
+      </c>
+      <c r="T146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1106,7 +1106,7 @@
         <v>1.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
         <v>1.33</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT11" t="n">
         <v>1.67</v>
@@ -2933,7 +2933,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT18" t="n">
         <v>1.4</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
         <v>2.5</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.17</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.4</v>
@@ -7196,7 +7196,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU33" t="n">
         <v>1.74</v>
@@ -7399,7 +7399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU34" t="n">
         <v>1.36</v>
@@ -7602,7 +7602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -7805,7 +7805,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU36" t="n">
         <v>1.26</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT37" t="n">
         <v>0.67</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU38" t="n">
         <v>1.72</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT39" t="n">
         <v>0.67</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU40" t="n">
         <v>1.76</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT41" t="n">
         <v>1.33</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
         <v>1.33</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT45" t="n">
         <v>1.2</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT48" t="n">
         <v>2.5</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT58" t="n">
         <v>1.33</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>2.03</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5</v>
@@ -12880,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.14</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>2.1</v>
@@ -13286,7 +13286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.24</v>
@@ -13489,7 +13489,7 @@
         <v>1.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.26</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU65" t="n">
         <v>2.06</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT66" t="n">
         <v>0.67</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU67" t="n">
         <v>1.49</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU68" t="n">
         <v>2.03</v>
@@ -14504,7 +14504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU69" t="n">
         <v>0.49</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT70" t="n">
         <v>1.33</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT81" t="n">
         <v>0.67</v>
@@ -17546,7 +17546,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT84" t="n">
         <v>1.67</v>
@@ -17955,7 +17955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU86" t="n">
         <v>0.74</v>
@@ -18361,7 +18361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -18561,10 +18561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU89" t="n">
         <v>1.5</v>
@@ -18767,7 +18767,7 @@
         <v>1.33</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT92" t="n">
         <v>1.33</v>
@@ -19373,10 +19373,10 @@
         <v>1.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.84</v>
@@ -19576,10 +19576,10 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.81</v>
@@ -19779,10 +19779,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU95" t="n">
         <v>1.86</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU96" t="n">
         <v>2.03</v>
@@ -20185,7 +20185,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT97" t="n">
         <v>0.5</v>
@@ -20591,10 +20591,10 @@
         <v>0.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU99" t="n">
         <v>1.88</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT101" t="n">
         <v>1.33</v>
@@ -23842,7 +23842,7 @@
         <v>2.6</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.94</v>
@@ -24042,10 +24042,10 @@
         <v>0.25</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU116" t="n">
         <v>1.68</v>
@@ -24245,10 +24245,10 @@
         <v>0.5</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU117" t="n">
         <v>1.81</v>
@@ -24448,7 +24448,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT118" t="n">
         <v>0.5</v>
@@ -24654,7 +24654,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU119" t="n">
         <v>0.89</v>
@@ -24854,10 +24854,10 @@
         <v>1.5</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU120" t="n">
         <v>1.52</v>
@@ -25057,10 +25057,10 @@
         <v>1.25</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU121" t="n">
         <v>1.76</v>
@@ -25260,7 +25260,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT122" t="n">
         <v>1.33</v>
@@ -25466,7 +25466,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -25666,10 +25666,10 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU124" t="n">
         <v>1.76</v>
@@ -26072,10 +26072,10 @@
         <v>1.25</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU126" t="n">
         <v>0.93</v>
@@ -30187,6 +30187,1833 @@
       </c>
       <c r="BK146" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4554565</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45028.72916666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3</v>
+      </c>
+      <c r="S147" t="n">
+        <v>4</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4554560</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45028.79166666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>11</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['33', '66']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>6</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>8</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4554562</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45028.8125</v>
+      </c>
+      <c r="F149" t="n">
+        <v>11</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>4</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5</v>
+      </c>
+      <c r="S149" t="n">
+        <v>9</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V149" t="n">
+        <v>5</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4554564</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45028.89583333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>4</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>5</v>
+      </c>
+      <c r="T150" t="n">
+        <v>3</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V150" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4554563</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45028.89583333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>2</v>
+      </c>
+      <c r="R151" t="n">
+        <v>12</v>
+      </c>
+      <c r="S151" t="n">
+        <v>14</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4554558</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45029.58333333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>11</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['38', '66']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['62', '76', '79']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" t="n">
+        <v>3</v>
+      </c>
+      <c r="S152" t="n">
+        <v>4</v>
+      </c>
+      <c r="T152" t="n">
+        <v>4</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4554566</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45029.6875</v>
+      </c>
+      <c r="F153" t="n">
+        <v>11</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2</v>
+      </c>
+      <c r="N153" t="n">
+        <v>4</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['3', '36']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['68', '89']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R153" t="n">
+        <v>5</v>
+      </c>
+      <c r="S153" t="n">
+        <v>6</v>
+      </c>
+      <c r="T153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2</v>
+      </c>
+      <c r="V153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4554561</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45029.8125</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['26', '65', '90']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>6</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V154" t="n">
+        <v>8</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5019503</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45029.89583333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R155" t="n">
+        <v>6</v>
+      </c>
+      <c r="S155" t="n">
+        <v>7</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V155" t="n">
+        <v>5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT3" t="n">
         <v>0.83</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT5" t="n">
         <v>1.17</v>
@@ -1715,7 +1715,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.83</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT12" t="n">
         <v>0.67</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT14" t="n">
         <v>0.17</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>0.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.6</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.4</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
         <v>0.8</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU31" t="n">
         <v>1.53</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT33" t="n">
         <v>0.83</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT35" t="n">
         <v>1.2</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT36" t="n">
         <v>1.17</v>
@@ -8414,7 +8414,7 @@
         <v>2.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>1.83</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9426,10 +9426,10 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU44" t="n">
         <v>1.83</v>
@@ -9632,7 +9632,7 @@
         <v>0.8</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU46" t="n">
         <v>2.16</v>
@@ -10241,7 +10241,7 @@
         <v>1.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU48" t="n">
         <v>2.98</v>
@@ -10444,7 +10444,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU49" t="n">
         <v>2.25</v>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU50" t="n">
         <v>1.84</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT51" t="n">
         <v>0.8</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT52" t="n">
         <v>1.2</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT53" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>1.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12271,7 +12271,7 @@
         <v>1.6</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU58" t="n">
         <v>0.67</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT63" t="n">
         <v>1.2</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -14910,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU71" t="n">
         <v>1.42</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU72" t="n">
         <v>1.44</v>
@@ -15719,7 +15719,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT75" t="n">
         <v>1.2</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU78" t="n">
         <v>0.82</v>
@@ -16531,10 +16531,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU79" t="n">
         <v>1.59</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.91</v>
@@ -16940,7 +16940,7 @@
         <v>1.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU81" t="n">
         <v>2.17</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -17549,7 +17549,7 @@
         <v>0.8</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -17749,7 +17749,7 @@
         <v>3</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT85" t="n">
         <v>2</v>
@@ -18764,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT90" t="n">
         <v>2.2</v>
@@ -18970,7 +18970,7 @@
         <v>1.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU91" t="n">
         <v>1.27</v>
@@ -20388,7 +20388,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT98" t="n">
         <v>1.4</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>0.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU101" t="n">
         <v>1.12</v>
@@ -21200,7 +21200,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT102" t="n">
         <v>1.2</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU104" t="n">
         <v>1.17</v>
@@ -21812,7 +21812,7 @@
         <v>2</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,10 +22012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22215,10 +22215,10 @@
         <v>1.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU107" t="n">
         <v>1.64</v>
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.2</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU111" t="n">
         <v>1.37</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT114" t="n">
         <v>1</v>
@@ -26481,7 +26481,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU128" t="n">
         <v>1.47</v>
@@ -26884,7 +26884,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT130" t="n">
         <v>0.8</v>
@@ -27087,10 +27087,10 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU131" t="n">
         <v>1.55</v>
@@ -27293,7 +27293,7 @@
         <v>1.2</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27493,10 +27493,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU133" t="n">
         <v>1.55</v>
@@ -27696,10 +27696,10 @@
         <v>1.4</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27902,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU135" t="n">
         <v>1.38</v>
@@ -28102,7 +28102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT136" t="n">
         <v>1</v>
@@ -28305,10 +28305,10 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU137" t="n">
         <v>1.61</v>
@@ -28511,7 +28511,7 @@
         <v>2</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU138" t="n">
         <v>1.49</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -28914,10 +28914,10 @@
         <v>2.4</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU140" t="n">
         <v>1.52</v>
@@ -29117,7 +29117,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT141" t="n">
         <v>1.2</v>
@@ -32014,6 +32014,1833 @@
       </c>
       <c r="BK155" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5019505</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45031.6875</v>
+      </c>
+      <c r="F156" t="n">
+        <v>12</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>5</v>
+      </c>
+      <c r="R156" t="n">
+        <v>4</v>
+      </c>
+      <c r="S156" t="n">
+        <v>9</v>
+      </c>
+      <c r="T156" t="n">
+        <v>3</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4554573</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45031.79166666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>4</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4554578</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45031.89583333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>12</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>7</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>9</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4554577</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45031.89583333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>12</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['34', '52']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>15</v>
+      </c>
+      <c r="R159" t="n">
+        <v>4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>19</v>
+      </c>
+      <c r="T159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4554579</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45032.58333333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>7</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>11</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4554570</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45032.58333333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>12</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" t="n">
+        <v>5</v>
+      </c>
+      <c r="S161" t="n">
+        <v>6</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V161" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4554575</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45032.6875</v>
+      </c>
+      <c r="F162" t="n">
+        <v>12</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>8</v>
+      </c>
+      <c r="T162" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4554576</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45032.79166666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>12</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
+      <c r="R163" t="n">
+        <v>6</v>
+      </c>
+      <c r="S163" t="n">
+        <v>7</v>
+      </c>
+      <c r="T163" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4554572</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45032.89583333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>12</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>8</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2</v>
+      </c>
+      <c r="V164" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK164"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT8" t="n">
         <v>0.83</v>
@@ -2527,7 +2527,7 @@
         <v>0.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0.83</v>
@@ -5369,7 +5369,7 @@
         <v>1.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU24" t="n">
         <v>1.71</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT34" t="n">
         <v>0.67</v>
@@ -8008,7 +8008,7 @@
         <v>2.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT38" t="n">
         <v>0.17</v>
@@ -9226,7 +9226,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU43" t="n">
         <v>1.92</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT50" t="n">
         <v>1.67</v>
@@ -11053,7 +11053,7 @@
         <v>0.83</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU52" t="n">
         <v>1.84</v>
@@ -11662,7 +11662,7 @@
         <v>1.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU55" t="n">
         <v>1.5</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>1.33</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT61" t="n">
         <v>2.2</v>
@@ -13895,7 +13895,7 @@
         <v>2.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU66" t="n">
         <v>1.25</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT68" t="n">
         <v>1.17</v>
@@ -14707,7 +14707,7 @@
         <v>1.83</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -15313,7 +15313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15516,10 +15516,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU74" t="n">
         <v>1.4</v>
@@ -15722,7 +15722,7 @@
         <v>1.67</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT83" t="n">
         <v>1.17</v>
@@ -18158,7 +18158,7 @@
         <v>2.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -19173,7 +19173,7 @@
         <v>1.6</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU92" t="n">
         <v>0.97</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT96" t="n">
         <v>1.2</v>
@@ -21203,7 +21203,7 @@
         <v>0.5</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU102" t="n">
         <v>1.71</v>
@@ -21403,7 +21403,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT103" t="n">
         <v>2</v>
@@ -21809,7 +21809,7 @@
         <v>1.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT105" t="n">
         <v>1.86</v>
@@ -22621,7 +22621,7 @@
         <v>2.25</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT109" t="n">
         <v>2.57</v>
@@ -23436,7 +23436,7 @@
         <v>1.43</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -25263,7 +25263,7 @@
         <v>1.4</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU122" t="n">
         <v>1.77</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT125" t="n">
         <v>1.4</v>
@@ -26278,7 +26278,7 @@
         <v>1.67</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU127" t="n">
         <v>1.29</v>
@@ -26478,7 +26478,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT128" t="n">
         <v>1.17</v>
@@ -26684,7 +26684,7 @@
         <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -27290,7 +27290,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
         <v>0.71</v>
@@ -28105,7 +28105,7 @@
         <v>1.57</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28508,7 +28508,7 @@
         <v>1.4</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT138" t="n">
         <v>1.29</v>
@@ -29120,7 +29120,7 @@
         <v>1.14</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU141" t="n">
         <v>1.67</v>
@@ -29929,7 +29929,7 @@
         <v>1.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT145" t="n">
         <v>2</v>
@@ -30135,7 +30135,7 @@
         <v>1.67</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU146" t="n">
         <v>1.4</v>
@@ -33841,6 +33841,1021 @@
       </c>
       <c r="BK164" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4554571</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45033.6875</v>
+      </c>
+      <c r="F165" t="n">
+        <v>12</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2</v>
+      </c>
+      <c r="R165" t="n">
+        <v>7</v>
+      </c>
+      <c r="S165" t="n">
+        <v>9</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4554569</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45033.79166666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>12</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3</v>
+      </c>
+      <c r="R166" t="n">
+        <v>6</v>
+      </c>
+      <c r="S166" t="n">
+        <v>9</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U166" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5019506</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45033.79166666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>4</v>
+      </c>
+      <c r="R167" t="n">
+        <v>7</v>
+      </c>
+      <c r="S167" t="n">
+        <v>11</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4554574</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45033.89583333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2</v>
+      </c>
+      <c r="N168" t="n">
+        <v>4</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['6', '90']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['55', '72']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3</v>
+      </c>
+      <c r="R168" t="n">
+        <v>7</v>
+      </c>
+      <c r="S168" t="n">
+        <v>10</v>
+      </c>
+      <c r="T168" t="n">
+        <v>3</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4554580</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45033.89583333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>3</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4</v>
+      </c>
+      <c r="K169" t="n">
+        <v>7</v>
+      </c>
+      <c r="L169" t="n">
+        <v>4</v>
+      </c>
+      <c r="M169" t="n">
+        <v>4</v>
+      </c>
+      <c r="N169" t="n">
+        <v>8</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['17', '30', '39', '90+2']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['1', '9', '34', '35']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
+      <c r="S169" t="n">
+        <v>1</v>
+      </c>
+      <c r="T169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2</v>
+      </c>
+      <c r="V169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
